--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV_Fiets.xlsx
@@ -391,13 +391,13 @@
         <v>2206769.911756599</v>
       </c>
       <c r="C2">
-        <v>2156808.071188315</v>
+        <v>2156808.071188314</v>
       </c>
       <c r="D2">
-        <v>2030760.537700774</v>
+        <v>2030760.537700775</v>
       </c>
       <c r="E2">
-        <v>1859506.838036491</v>
+        <v>1859506.838036492</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,13 +405,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>891840.3375361492</v>
+        <v>891840.3375361488</v>
       </c>
       <c r="C3">
-        <v>876883.1866269941</v>
+        <v>876883.1866269937</v>
       </c>
       <c r="D3">
-        <v>830864.9377383991</v>
+        <v>830864.937738399</v>
       </c>
       <c r="E3">
         <v>754094.0607327812</v>
@@ -431,7 +431,7 @@
         <v>217249.5704252816</v>
       </c>
       <c r="E4">
-        <v>241415.9716325797</v>
+        <v>241415.9716325796</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -448,7 +448,7 @@
         <v>204470.1839296768</v>
       </c>
       <c r="E5">
-        <v>165179.3490117651</v>
+        <v>165179.349011765</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -473,13 +473,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>891840.3375361492</v>
+        <v>891840.3375361488</v>
       </c>
       <c r="C7">
-        <v>876883.1866269941</v>
+        <v>876883.1866269937</v>
       </c>
       <c r="D7">
-        <v>830864.9377383991</v>
+        <v>830864.937738399</v>
       </c>
       <c r="E7">
         <v>754094.0607327812</v>
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>747572.0476405957</v>
+        <v>747572.0476405954</v>
       </c>
       <c r="C8">
-        <v>833039.0272956444</v>
+        <v>833039.0272956439</v>
       </c>
       <c r="D8">
-        <v>877895.0285537803</v>
+        <v>877895.0285537801</v>
       </c>
       <c r="E8">
         <v>882450.4966021907</v>
@@ -507,13 +507,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>747572.0476405957</v>
+        <v>747572.0476405954</v>
       </c>
       <c r="C9">
-        <v>833039.0272956444</v>
+        <v>833039.0272956439</v>
       </c>
       <c r="D9">
-        <v>877895.0285537803</v>
+        <v>877895.0285537801</v>
       </c>
       <c r="E9">
         <v>882450.4966021907</v>
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>681995.5522335259</v>
+        <v>681995.5522335256</v>
       </c>
       <c r="C10">
-        <v>789194.8679642947</v>
+        <v>789194.8679642943</v>
       </c>
       <c r="D10">
-        <v>893571.7254922406</v>
+        <v>893571.7254922404</v>
       </c>
       <c r="E10">
         <v>994762.377987924</v>
@@ -541,13 +541,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>747572.0476405957</v>
+        <v>747572.0476405954</v>
       </c>
       <c r="C11">
-        <v>833039.0272956444</v>
+        <v>833039.0272956439</v>
       </c>
       <c r="D11">
-        <v>877895.0285537803</v>
+        <v>877895.0285537801</v>
       </c>
       <c r="E11">
         <v>882450.4966021907</v>
@@ -567,7 +567,7 @@
         <v>217249.5704252816</v>
       </c>
       <c r="E12">
-        <v>241415.9716325797</v>
+        <v>241415.9716325796</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,13 +575,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>681995.5522335259</v>
+        <v>681995.5522335256</v>
       </c>
       <c r="C13">
-        <v>789194.8679642947</v>
+        <v>789194.8679642943</v>
       </c>
       <c r="D13">
-        <v>893571.7254922406</v>
+        <v>893571.7254922404</v>
       </c>
       <c r="E13">
         <v>994762.377987924</v>
@@ -601,7 +601,7 @@
         <v>217249.5704252816</v>
       </c>
       <c r="E14">
-        <v>241415.9716325797</v>
+        <v>241415.9716325796</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -609,13 +609,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>747572.0476405957</v>
+        <v>747572.0476405954</v>
       </c>
       <c r="C15">
-        <v>833039.0272956444</v>
+        <v>833039.0272956439</v>
       </c>
       <c r="D15">
-        <v>877895.0285537803</v>
+        <v>877895.0285537801</v>
       </c>
       <c r="E15">
         <v>882450.4966021907</v>
@@ -629,13 +629,13 @@
         <v>1861131.25087906</v>
       </c>
       <c r="C16">
-        <v>2068775.088690833</v>
+        <v>2068775.088690832</v>
       </c>
       <c r="D16">
         <v>2139274.459562648</v>
       </c>
       <c r="E16">
-        <v>2202047.571359002</v>
+        <v>2202047.571359003</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -652,7 +652,7 @@
         <v>217249.5704252816</v>
       </c>
       <c r="E17">
-        <v>241415.9716325797</v>
+        <v>241415.9716325796</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -660,13 +660,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>747572.0476405957</v>
+        <v>747572.0476405954</v>
       </c>
       <c r="C18">
-        <v>833039.0272956444</v>
+        <v>833039.0272956439</v>
       </c>
       <c r="D18">
-        <v>877895.0285537803</v>
+        <v>877895.0285537801</v>
       </c>
       <c r="E18">
         <v>882450.4966021907</v>
@@ -680,13 +680,13 @@
         <v>1861131.25087906</v>
       </c>
       <c r="C19">
-        <v>2068775.088690833</v>
+        <v>2068775.088690832</v>
       </c>
       <c r="D19">
         <v>2139274.459562648</v>
       </c>
       <c r="E19">
-        <v>2202047.571359002</v>
+        <v>2202047.571359003</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -697,13 +697,13 @@
         <v>1861131.25087906</v>
       </c>
       <c r="C20">
-        <v>2068775.088690833</v>
+        <v>2068775.088690832</v>
       </c>
       <c r="D20">
         <v>2139274.459562648</v>
       </c>
       <c r="E20">
-        <v>2202047.571359002</v>
+        <v>2202047.571359003</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -714,13 +714,13 @@
         <v>1861131.25087906</v>
       </c>
       <c r="C21">
-        <v>2068775.088690833</v>
+        <v>2068775.088690832</v>
       </c>
       <c r="D21">
         <v>2139274.459562648</v>
       </c>
       <c r="E21">
-        <v>2202047.571359002</v>
+        <v>2202047.571359003</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,10 +728,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>402933.5821750385</v>
+        <v>402933.5821750386</v>
       </c>
       <c r="C22">
-        <v>371318.089372323</v>
+        <v>371318.0893723231</v>
       </c>
       <c r="D22">
         <v>286319.6742896147</v>
@@ -748,13 +748,13 @@
         <v>1861131.25087906</v>
       </c>
       <c r="C23">
-        <v>2068775.088690833</v>
+        <v>2068775.088690832</v>
       </c>
       <c r="D23">
         <v>2139274.459562648</v>
       </c>
       <c r="E23">
-        <v>2202047.571359002</v>
+        <v>2202047.571359003</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -765,13 +765,13 @@
         <v>1049662.212251928</v>
       </c>
       <c r="C24">
-        <v>985356.1516814937</v>
+        <v>985356.1516814939</v>
       </c>
       <c r="D24">
-        <v>870054.2066838028</v>
+        <v>870054.2066838029</v>
       </c>
       <c r="E24">
-        <v>721520.7167985986</v>
+        <v>721520.7167985985</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -782,13 +782,13 @@
         <v>1235772.533573192</v>
       </c>
       <c r="C25">
-        <v>1047918.44702635</v>
+        <v>1047918.447026351</v>
       </c>
       <c r="D25">
-        <v>823024.2495657593</v>
+        <v>823024.2495657596</v>
       </c>
       <c r="E25">
-        <v>554431.7086978705</v>
+        <v>554431.7086978704</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -799,13 +799,13 @@
         <v>1235772.533573192</v>
       </c>
       <c r="C26">
-        <v>1047918.44702635</v>
+        <v>1047918.447026351</v>
       </c>
       <c r="D26">
-        <v>823024.2495657593</v>
+        <v>823024.2495657596</v>
       </c>
       <c r="E26">
-        <v>554431.7086978705</v>
+        <v>554431.7086978704</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -813,16 +813,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>778315.5784719741</v>
+        <v>778315.5784719742</v>
       </c>
       <c r="C27">
-        <v>775539.0508002706</v>
+        <v>775539.0508002705</v>
       </c>
       <c r="D27">
         <v>673303.2976007032</v>
       </c>
       <c r="E27">
-        <v>568537.3926246437</v>
+        <v>568537.3926246439</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -830,10 +830,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>945097.48814454</v>
+        <v>945097.4881445401</v>
       </c>
       <c r="C28">
-        <v>834070.2999172722</v>
+        <v>834070.2999172721</v>
       </c>
       <c r="D28">
         <v>633697.22127125</v>
@@ -847,10 +847,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>945097.48814454</v>
+        <v>945097.4881445401</v>
       </c>
       <c r="C29">
-        <v>834070.2999172722</v>
+        <v>834070.2999172721</v>
       </c>
       <c r="D29">
         <v>633697.22127125</v>
@@ -864,13 +864,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>4370345.178024977</v>
+        <v>4370345.178024976</v>
       </c>
       <c r="C30">
         <v>4719202.359680193</v>
       </c>
       <c r="D30">
-        <v>5159729.918094861</v>
+        <v>5159729.918094863</v>
       </c>
       <c r="E30">
         <v>6385464.038239634</v>
@@ -881,13 +881,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3717305.093952279</v>
+        <v>3717305.093952278</v>
       </c>
       <c r="C31">
-        <v>4304327.426961055</v>
+        <v>4304327.426961056</v>
       </c>
       <c r="D31">
-        <v>5333653.398480081</v>
+        <v>5333653.398480083</v>
       </c>
       <c r="E31">
         <v>7543062.78201407</v>
@@ -904,7 +904,7 @@
         <v>3733874.394472241</v>
       </c>
       <c r="D32">
-        <v>5507576.878865302</v>
+        <v>5507576.878865303</v>
       </c>
       <c r="E32">
         <v>9148764.265314095</v>
@@ -921,7 +921,7 @@
         <v>4485835.210025678</v>
       </c>
       <c r="D33">
-        <v>5217704.411556602</v>
+        <v>5217704.411556603</v>
       </c>
       <c r="E33">
         <v>6982934.357607085</v>
@@ -932,16 +932,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2604497.134905754</v>
+        <v>2604497.134905755</v>
       </c>
       <c r="C34">
-        <v>3355811.702994051</v>
+        <v>3355811.70299405</v>
       </c>
       <c r="D34">
-        <v>4338622.336065538</v>
+        <v>4338622.336065537</v>
       </c>
       <c r="E34">
-        <v>6487001.783510836</v>
+        <v>6487001.783510837</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -949,13 +949,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>14620775.54386423</v>
+        <v>14620775.54386424</v>
       </c>
       <c r="C35">
-        <v>16195384.8052636</v>
+        <v>16195384.80526359</v>
       </c>
       <c r="D35">
-        <v>19512563.12446366</v>
+        <v>19512563.12446365</v>
       </c>
       <c r="E35">
         <v>27928681.70510963</v>
@@ -966,16 +966,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2806529.26626642</v>
+        <v>2806529.266266419</v>
       </c>
       <c r="C36">
-        <v>3372374.936911658</v>
+        <v>3372374.936911657</v>
       </c>
       <c r="D36">
         <v>4152592.048774592</v>
       </c>
       <c r="E36">
-        <v>5772325.886988952</v>
+        <v>5772325.886988954</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -986,10 +986,10 @@
         <v>2918362.346211112</v>
       </c>
       <c r="C37">
-        <v>3008794.259302812</v>
+        <v>3008794.25930281</v>
       </c>
       <c r="D37">
-        <v>3184982.103500746</v>
+        <v>3184982.103500747</v>
       </c>
       <c r="E37">
         <v>3891862.535866062</v>
@@ -1003,7 +1003,7 @@
         <v>2004788.046527633</v>
       </c>
       <c r="C38">
-        <v>2407035.407442249</v>
+        <v>2407035.407442248</v>
       </c>
       <c r="D38">
         <v>3418742.257886122</v>
@@ -1017,16 +1017,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>4291500.960924253</v>
+        <v>4291500.960924255</v>
       </c>
       <c r="C39">
-        <v>4044951.606287472</v>
+        <v>4044951.606287471</v>
       </c>
       <c r="D39">
         <v>3891999.448529379</v>
       </c>
       <c r="E39">
-        <v>4258338.5940838</v>
+        <v>4258338.594083801</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1037,10 +1037,10 @@
         <v>19022081.17150171</v>
       </c>
       <c r="C40">
-        <v>18116871.13809149</v>
+        <v>18116871.13809148</v>
       </c>
       <c r="D40">
-        <v>18419602.42226965</v>
+        <v>18419602.42226964</v>
       </c>
       <c r="E40">
         <v>22126878.19903385</v>
@@ -1054,10 +1054,10 @@
         <v>22669738.57522867</v>
       </c>
       <c r="C41">
-        <v>19001364.84685353</v>
+        <v>19001364.84685352</v>
       </c>
       <c r="D41">
-        <v>17423079.42909276</v>
+        <v>17423079.42909275</v>
       </c>
       <c r="E41">
         <v>18405721.46755076</v>
@@ -1071,13 +1071,13 @@
         <v>1816423.251895392</v>
       </c>
       <c r="C42">
-        <v>2339981.681174767</v>
+        <v>2339981.681174765</v>
       </c>
       <c r="D42">
-        <v>3196560.65333184</v>
+        <v>3196560.653331841</v>
       </c>
       <c r="E42">
-        <v>5019877.638320592</v>
+        <v>5019877.63832059</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1085,16 +1085,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2085522.992916932</v>
+        <v>2085522.992916931</v>
       </c>
       <c r="C43">
-        <v>2432654.22300347</v>
+        <v>2432654.223003469</v>
       </c>
       <c r="D43">
-        <v>3117956.702840073</v>
+        <v>3117956.702840074</v>
       </c>
       <c r="E43">
-        <v>4676050.402819182</v>
+        <v>4676050.402819181</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1105,13 +1105,13 @@
         <v>6585223.871960556</v>
       </c>
       <c r="C44">
-        <v>6010997.214713799</v>
+        <v>6010997.214713801</v>
       </c>
       <c r="D44">
-        <v>5836296.016542414</v>
+        <v>5836296.016542416</v>
       </c>
       <c r="E44">
-        <v>6457805.901256539</v>
+        <v>6457805.901256538</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1119,16 +1119,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1053150.25835948</v>
+        <v>1053150.258359481</v>
       </c>
       <c r="C45">
         <v>1206176.392716066</v>
       </c>
       <c r="D45">
-        <v>1522997.556645623</v>
+        <v>1522997.556645624</v>
       </c>
       <c r="E45">
-        <v>2172753.440928543</v>
+        <v>2172753.440928542</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1139,10 +1139,10 @@
         <v>2258558.6853286</v>
       </c>
       <c r="C46">
-        <v>2668669.690859885</v>
+        <v>2668669.690859884</v>
       </c>
       <c r="D46">
-        <v>3389522.23858795</v>
+        <v>3389522.238587951</v>
       </c>
       <c r="E46">
         <v>4949844.58445101</v>
@@ -1153,16 +1153,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>3924755.770794447</v>
+        <v>3924755.770794445</v>
       </c>
       <c r="C47">
-        <v>3672654.897047627</v>
+        <v>3672654.897047626</v>
       </c>
       <c r="D47">
-        <v>3802048.564137776</v>
+        <v>3802048.564137775</v>
       </c>
       <c r="E47">
-        <v>4338207.654196666</v>
+        <v>4338207.654196667</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1210,7 +1210,7 @@
         <v>5225253.703657491</v>
       </c>
       <c r="D50">
-        <v>6723371.012108559</v>
+        <v>6723371.012108557</v>
       </c>
       <c r="E50">
         <v>8637361.707227366</v>
@@ -1230,7 +1230,7 @@
         <v>1496343.688267785</v>
       </c>
       <c r="E51">
-        <v>1303601.397050231</v>
+        <v>1303601.39705023</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1238,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1344172.642452281</v>
+        <v>1344172.64245228</v>
       </c>
       <c r="C52">
         <v>1483158.239916853</v>
@@ -1261,7 +1261,7 @@
         <v>1771146.617975399</v>
       </c>
       <c r="D53">
-        <v>1928035.584665213</v>
+        <v>1928035.584665214</v>
       </c>
       <c r="E53">
         <v>2061304.438712141</v>
@@ -1295,7 +1295,7 @@
         <v>6462813.791365844</v>
       </c>
       <c r="D55">
-        <v>6106352.786313786</v>
+        <v>6106352.786313784</v>
       </c>
       <c r="E55">
         <v>5506889.342438611</v>
@@ -1306,16 +1306,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>5477099.737140797</v>
+        <v>5477099.737140798</v>
       </c>
       <c r="C56">
-        <v>7635146.562073908</v>
+        <v>7635146.562073905</v>
       </c>
       <c r="D56">
-        <v>8018872.340942133</v>
+        <v>8018872.340942136</v>
       </c>
       <c r="E56">
-        <v>8041273.44872071</v>
+        <v>8041273.448720708</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1329,10 +1329,10 @@
         <v>4526519.798442879</v>
       </c>
       <c r="D57">
-        <v>4823687.85566688</v>
+        <v>4823687.855666877</v>
       </c>
       <c r="E57">
-        <v>5023703.414582051</v>
+        <v>5023703.414582049</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1340,16 +1340,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>866178.3019118785</v>
+        <v>866178.3019118784</v>
       </c>
       <c r="C58">
         <v>925232.28483587</v>
       </c>
       <c r="D58">
-        <v>826051.931673198</v>
+        <v>826051.9316731982</v>
       </c>
       <c r="E58">
-        <v>697163.2199386568</v>
+        <v>697163.2199386565</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1357,16 +1357,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>866178.3019118785</v>
+        <v>866178.3019118784</v>
       </c>
       <c r="C59">
         <v>925232.28483587</v>
       </c>
       <c r="D59">
-        <v>826051.931673198</v>
+        <v>826051.9316731982</v>
       </c>
       <c r="E59">
-        <v>697163.2199386568</v>
+        <v>697163.2199386565</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1380,7 +1380,7 @@
         <v>1644097.929310572</v>
       </c>
       <c r="D60">
-        <v>1450980.736641076</v>
+        <v>1450980.736641077</v>
       </c>
       <c r="E60">
         <v>1226493.104385933</v>
@@ -1397,7 +1397,7 @@
         <v>1721925.050224682</v>
       </c>
       <c r="D61">
-        <v>1385027.066793754</v>
+        <v>1385027.066793756</v>
       </c>
       <c r="E61">
         <v>1023548.202221354</v>
@@ -1408,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>204275.7972082776</v>
+        <v>204275.7972082775</v>
       </c>
       <c r="C62">
         <v>208633.5418176723</v>
@@ -1425,13 +1425,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>251940.149890209</v>
+        <v>251940.1498902089</v>
       </c>
       <c r="C63">
         <v>230216.3220057074</v>
       </c>
       <c r="D63">
-        <v>201857.7542001053</v>
+        <v>201857.7542001052</v>
       </c>
       <c r="E63">
         <v>156731.9349796032</v>
@@ -1448,7 +1448,7 @@
         <v>189168.8287109073</v>
       </c>
       <c r="D64">
-        <v>186304.6846871785</v>
+        <v>186304.6846871784</v>
       </c>
       <c r="E64">
         <v>148865.5665534312</v>
@@ -1465,7 +1465,7 @@
         <v>184820.1200049095</v>
       </c>
       <c r="D65">
-        <v>188856.803655496</v>
+        <v>188856.8036554959</v>
       </c>
       <c r="E65">
         <v>164535.6261906345</v>
@@ -1479,13 +1479,13 @@
         <v>1150872.2865229</v>
       </c>
       <c r="C66">
-        <v>1335724.885412243</v>
+        <v>1335724.885412242</v>
       </c>
       <c r="D66">
-        <v>1660230.026354961</v>
+        <v>1660230.02635496</v>
       </c>
       <c r="E66">
-        <v>2219813.534282374</v>
+        <v>2219813.534282375</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1493,7 +1493,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>737738.6452069874</v>
+        <v>737738.6452069875</v>
       </c>
       <c r="C67">
         <v>1046049.60905778</v>
@@ -1502,7 +1502,7 @@
         <v>1778817.885380315</v>
       </c>
       <c r="E67">
-        <v>3159969.854684321</v>
+        <v>3159969.854684322</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1510,16 +1510,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>929550.6929608042</v>
+        <v>929550.6929608043</v>
       </c>
       <c r="C68">
         <v>1158701.105417849</v>
       </c>
       <c r="D68">
-        <v>1719523.955867638</v>
+        <v>1719523.955867637</v>
       </c>
       <c r="E68">
-        <v>2768238.054516843</v>
+        <v>2768238.054516844</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1544,16 +1544,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>841022.0555359657</v>
+        <v>841022.0555359658</v>
       </c>
       <c r="C70">
         <v>1142608.034509268</v>
       </c>
       <c r="D70">
-        <v>1759053.242209423</v>
+        <v>1759053.242209422</v>
       </c>
       <c r="E70">
-        <v>2846584.414550338</v>
+        <v>2846584.414550339</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1561,16 +1561,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>4545237.426722795</v>
+        <v>4545237.426722796</v>
       </c>
       <c r="C71">
         <v>4450407.371255682</v>
       </c>
       <c r="D71">
-        <v>5116428.783085171</v>
+        <v>5116428.783085169</v>
       </c>
       <c r="E71">
-        <v>6380572.243612169</v>
+        <v>6380572.24361217</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1629,13 +1629,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1463629.735831039</v>
+        <v>1463629.73583104</v>
       </c>
       <c r="C75">
         <v>1351981.294024099</v>
       </c>
       <c r="D75">
-        <v>1266985.228720418</v>
+        <v>1266985.228720419</v>
       </c>
       <c r="E75">
         <v>1143622.421656143</v>
@@ -1649,13 +1649,13 @@
         <v>1150872.2865229</v>
       </c>
       <c r="C76">
-        <v>1335724.885412243</v>
+        <v>1335724.885412242</v>
       </c>
       <c r="D76">
-        <v>1660230.026354961</v>
+        <v>1660230.02635496</v>
       </c>
       <c r="E76">
-        <v>2219813.534282374</v>
+        <v>2219813.534282375</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1663,13 +1663,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2730900.245029812</v>
+        <v>2730900.245029811</v>
       </c>
       <c r="C77">
         <v>2872695.584805957</v>
       </c>
       <c r="D77">
-        <v>3416247.028542712</v>
+        <v>3416247.028542713</v>
       </c>
       <c r="E77">
         <v>4404769.929801632</v>
@@ -1686,7 +1686,7 @@
         <v>2719892.628167342</v>
       </c>
       <c r="D78">
-        <v>3754117.6137832</v>
+        <v>3754117.613783201</v>
       </c>
       <c r="E78">
         <v>5474855.279979429</v>
@@ -1697,13 +1697,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>3378433.292820386</v>
+        <v>3378433.292820384</v>
       </c>
       <c r="C79">
         <v>3040778.837108433</v>
       </c>
       <c r="D79">
-        <v>3190999.97171572</v>
+        <v>3190999.971715721</v>
       </c>
       <c r="E79">
         <v>3508884.520350453</v>
@@ -1714,13 +1714,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>3181358.017405863</v>
+        <v>3181358.017405862</v>
       </c>
       <c r="C80">
-        <v>2964377.358789125</v>
+        <v>2964377.358789126</v>
       </c>
       <c r="D80">
-        <v>3266082.323991384</v>
+        <v>3266082.323991385</v>
       </c>
       <c r="E80">
         <v>3782627.284349424</v>
@@ -1731,10 +1731,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>798918.7702200694</v>
+        <v>798918.7702200693</v>
       </c>
       <c r="C81">
-        <v>816774.6040873101</v>
+        <v>816774.6040873104</v>
       </c>
       <c r="D81">
         <v>970186.7786822611</v>
@@ -1748,10 +1748,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>892909.2137753718</v>
+        <v>892909.2137753717</v>
       </c>
       <c r="C82">
-        <v>915777.5864009234</v>
+        <v>915777.5864009238</v>
       </c>
       <c r="D82">
         <v>941651.8734269005</v>
@@ -1782,10 +1782,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2839414.951117591</v>
+        <v>2839414.951117592</v>
       </c>
       <c r="C84">
-        <v>2381022.059933468</v>
+        <v>2381022.059933469</v>
       </c>
       <c r="D84">
         <v>2028986.960647011</v>
@@ -1808,7 +1808,7 @@
         <v>1509250.709118669</v>
       </c>
       <c r="E85">
-        <v>1575925.693546559</v>
+        <v>1575925.69354656</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1825,7 +1825,7 @@
         <v>1488576.041870468</v>
       </c>
       <c r="E86">
-        <v>1475866.919353126</v>
+        <v>1475866.919353127</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1842,7 +1842,7 @@
         <v>559560.9449144318</v>
       </c>
       <c r="E87">
-        <v>682706.1316030431</v>
+        <v>682706.1316030434</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1853,13 +1853,13 @@
         <v>556866.629001452</v>
       </c>
       <c r="C88">
-        <v>563478.6580842979</v>
+        <v>563478.658084298</v>
       </c>
       <c r="D88">
         <v>579545.2643756614</v>
       </c>
       <c r="E88">
-        <v>729789.3130929081</v>
+        <v>729789.3130929085</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1870,13 +1870,13 @@
         <v>639365.3888535189</v>
       </c>
       <c r="C89">
-        <v>603727.1336617477</v>
+        <v>603727.1336617478</v>
       </c>
       <c r="D89">
         <v>559560.9449144318</v>
       </c>
       <c r="E89">
-        <v>612081.3593682456</v>
+        <v>612081.3593682458</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1890,7 +1890,7 @@
         <v>156162309.0802581</v>
       </c>
       <c r="D90">
-        <v>169708640.4395755</v>
+        <v>169708640.4395754</v>
       </c>
       <c r="E90">
         <v>202578475.2543108</v>
@@ -1901,13 +1901,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>33703762.27810447</v>
+        <v>33703762.27810448</v>
       </c>
       <c r="C91">
         <v>40044223.74072353</v>
       </c>
       <c r="D91">
-        <v>47098293.69854018</v>
+        <v>47098293.69854014</v>
       </c>
       <c r="E91">
         <v>60766872.22807942</v>
@@ -1924,7 +1924,7 @@
         <v>37808251.85672374</v>
       </c>
       <c r="D92">
-        <v>48811964.00916781</v>
+        <v>48811964.00916778</v>
       </c>
       <c r="E92">
         <v>69171510.9775174</v>
@@ -1935,13 +1935,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>60696598.43888725</v>
+        <v>60696598.43888726</v>
       </c>
       <c r="C93">
         <v>72008458.17335691</v>
       </c>
       <c r="D93">
-        <v>91487882.7125399</v>
+        <v>91487882.71253984</v>
       </c>
       <c r="E93">
         <v>128871127.4913825</v>
@@ -1955,7 +1955,7 @@
         <v>38164177.46251795</v>
       </c>
       <c r="C94">
-        <v>55969542.67804661</v>
+        <v>55969542.67804658</v>
       </c>
       <c r="D94">
         <v>98920527.85920338</v>
@@ -1969,13 +1969,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>17647250.16036443</v>
+        <v>17647250.16036444</v>
       </c>
       <c r="C95">
         <v>20936827.64108895</v>
       </c>
       <c r="D95">
-        <v>24931139.03526012</v>
+        <v>24931139.0352601</v>
       </c>
       <c r="E95">
         <v>32751409.72995279</v>
@@ -1986,13 +1986,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>5418451.457689362</v>
+        <v>5418451.457689363</v>
       </c>
       <c r="C96">
         <v>6758733.19481755</v>
       </c>
       <c r="D96">
-        <v>8900029.677775785</v>
+        <v>8900029.67777578</v>
       </c>
       <c r="E96">
         <v>12807068.57057217</v>
@@ -2003,13 +2003,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>5667004.276849424</v>
+        <v>5667004.276849425</v>
       </c>
       <c r="C97">
         <v>7114455.99454479</v>
       </c>
       <c r="D97">
-        <v>9010589.052654987</v>
+        <v>9010589.052654982</v>
       </c>
       <c r="E97">
         <v>12673661.60629538</v>
@@ -2020,7 +2020,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>6292999.516099531</v>
+        <v>6292999.516099533</v>
       </c>
       <c r="C98">
         <v>8404478.475308087</v>
@@ -2037,7 +2037,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>3263036.786125683</v>
+        <v>3263036.786125684</v>
       </c>
       <c r="C99">
         <v>3446780.498300507</v>
@@ -2046,7 +2046,7 @@
         <v>3914207.111081538</v>
       </c>
       <c r="E99">
-        <v>4908884.95007919</v>
+        <v>4908884.950079191</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2054,10 +2054,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>8543217.722839704</v>
+        <v>8543217.722839702</v>
       </c>
       <c r="C100">
-        <v>8885293.866911223</v>
+        <v>8885293.866911227</v>
       </c>
       <c r="D100">
         <v>9818027.874118293</v>
@@ -2071,10 +2071,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>4059208.420796765</v>
+        <v>4059208.420796764</v>
       </c>
       <c r="C101">
-        <v>4751494.04647659</v>
+        <v>4751494.046476591</v>
       </c>
       <c r="D101">
         <v>5850120.235873594</v>
@@ -2088,10 +2088,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>849601.7624923462</v>
+        <v>849601.762492346</v>
       </c>
       <c r="C102">
-        <v>855268.9283657861</v>
+        <v>855268.9283657866</v>
       </c>
       <c r="D102">
         <v>915670.9934410843</v>
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>4227378.966536274</v>
+        <v>4227378.966536277</v>
       </c>
       <c r="C103">
-        <v>4476422.728088089</v>
+        <v>4476422.728088088</v>
       </c>
       <c r="D103">
-        <v>4915760.17111682</v>
+        <v>4915760.171116821</v>
       </c>
       <c r="E103">
-        <v>5989467.091525592</v>
+        <v>5989467.091525595</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,7 +2122,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>9936519.632683203</v>
+        <v>9936519.632683206</v>
       </c>
       <c r="C104">
         <v>11059397.32821763</v>
@@ -2131,7 +2131,7 @@
         <v>12734159.68136929</v>
       </c>
       <c r="E104">
-        <v>16612295.51800494</v>
+        <v>16612295.51800495</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2142,13 +2142,13 @@
         <v>1077422.646288111</v>
       </c>
       <c r="C105">
-        <v>1492340.180642598</v>
+        <v>1492340.180642597</v>
       </c>
       <c r="D105">
         <v>1839882.501340288</v>
       </c>
       <c r="E105">
-        <v>2464231.543502817</v>
+        <v>2464231.543502816</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2156,16 +2156,16 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1089530.661478421</v>
+        <v>1089530.661478422</v>
       </c>
       <c r="C106">
-        <v>1360481.417360106</v>
+        <v>1360481.417360105</v>
       </c>
       <c r="D106">
-        <v>1779037.014308944</v>
+        <v>1779037.014308945</v>
       </c>
       <c r="E106">
-        <v>2486193.887048359</v>
+        <v>2486193.88704836</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2173,16 +2173,16 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>4706772.45758678</v>
+        <v>4706772.457586782</v>
       </c>
       <c r="C107">
-        <v>5924677.140116588</v>
+        <v>5924677.140116587</v>
       </c>
       <c r="D107">
-        <v>8333383.909131371</v>
+        <v>8333383.909131372</v>
       </c>
       <c r="E107">
-        <v>13109022.31352771</v>
+        <v>13109022.31352772</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2196,10 +2196,10 @@
         <v>11079495.28052838</v>
       </c>
       <c r="D108">
-        <v>12782341.58825884</v>
+        <v>12782341.58825885</v>
       </c>
       <c r="E108">
-        <v>16721571.18805483</v>
+        <v>16721571.18805482</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2207,13 +2207,13 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1509249.521394026</v>
+        <v>1509249.521394025</v>
       </c>
       <c r="C109">
         <v>1866459.307802263</v>
       </c>
       <c r="D109">
-        <v>2392556.482158775</v>
+        <v>2392556.482158774</v>
       </c>
       <c r="E109">
         <v>3463220.151119865</v>
@@ -2224,7 +2224,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>76971725.5910953</v>
+        <v>76971725.59109527</v>
       </c>
       <c r="C110">
         <v>62851932.03948087</v>
@@ -2233,7 +2233,7 @@
         <v>57329334.16865063</v>
       </c>
       <c r="E110">
-        <v>55521465.9147788</v>
+        <v>55521465.91477879</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2244,7 +2244,7 @@
         <v>13195152.95847348</v>
       </c>
       <c r="C111">
-        <v>14063553.85413798</v>
+        <v>14063553.85413799</v>
       </c>
       <c r="D111">
         <v>16517841.86721154</v>
@@ -2261,13 +2261,13 @@
         <v>2627037.032677408</v>
       </c>
       <c r="C112">
-        <v>3265633.714808505</v>
+        <v>3265633.714808504</v>
       </c>
       <c r="D112">
-        <v>4523521.887843697</v>
+        <v>4523521.887843694</v>
       </c>
       <c r="E112">
-        <v>6918213.897347732</v>
+        <v>6918213.897347726</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2278,7 +2278,7 @@
         <v>1266951.005886054</v>
       </c>
       <c r="C113">
-        <v>1187955.775706623</v>
+        <v>1187955.775706622</v>
       </c>
       <c r="D113">
         <v>1264316.128254338</v>
@@ -2301,7 +2301,7 @@
         <v>3747794.237325359</v>
       </c>
       <c r="E114">
-        <v>5692543.696220281</v>
+        <v>5692543.696220282</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2309,16 +2309,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>5648129.620256428</v>
+        <v>5648129.620256427</v>
       </c>
       <c r="C115">
-        <v>6134095.76159976</v>
+        <v>6134095.761599758</v>
       </c>
       <c r="D115">
-        <v>7020882.930090738</v>
+        <v>7020882.930090733</v>
       </c>
       <c r="E115">
-        <v>9129774.077647416</v>
+        <v>9129774.077647408</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2329,13 +2329,13 @@
         <v>4247043.202828476</v>
       </c>
       <c r="C116">
-        <v>4721929.830871757</v>
+        <v>4721929.830871756</v>
       </c>
       <c r="D116">
-        <v>5654402.359804621</v>
+        <v>5654402.359804617</v>
       </c>
       <c r="E116">
-        <v>7712107.295404028</v>
+        <v>7712107.295404023</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2346,13 +2346,13 @@
         <v>717938.9033354307</v>
       </c>
       <c r="C117">
-        <v>848539.8397904447</v>
+        <v>848539.8397904446</v>
       </c>
       <c r="D117">
-        <v>993391.2436284083</v>
+        <v>993391.2436284085</v>
       </c>
       <c r="E117">
-        <v>1355367.546719114</v>
+        <v>1355367.546719115</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2363,13 +2363,13 @@
         <v>591243.8027468253</v>
       </c>
       <c r="C118">
-        <v>466696.9118847446</v>
+        <v>466696.9118847445</v>
       </c>
       <c r="D118">
-        <v>496695.6218142041</v>
+        <v>496695.6218142043</v>
       </c>
       <c r="E118">
-        <v>650576.4224251749</v>
+        <v>650576.4224251751</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2397,13 +2397,13 @@
         <v>17069800.39027716</v>
       </c>
       <c r="C120">
-        <v>22240512.4098555</v>
+        <v>22240512.40985549</v>
       </c>
       <c r="D120">
-        <v>28266572.12451297</v>
+        <v>28266572.12451298</v>
       </c>
       <c r="E120">
-        <v>39718835.50371824</v>
+        <v>39718835.50371825</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2411,7 +2411,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>20181973.94209564</v>
+        <v>20181973.94209565</v>
       </c>
       <c r="C121">
         <v>18517851.53438612</v>
@@ -2428,16 +2428,16 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>13888082.77978504</v>
+        <v>13888082.77978505</v>
       </c>
       <c r="C122">
-        <v>13813467.72646168</v>
+        <v>13813467.72646167</v>
       </c>
       <c r="D122">
         <v>14956250.01421829</v>
       </c>
       <c r="E122">
-        <v>18459654.66122273</v>
+        <v>18459654.66122271</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2445,16 +2445,16 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>5697674.986578479</v>
+        <v>5697674.98657848</v>
       </c>
       <c r="C123">
-        <v>6258529.067005291</v>
+        <v>6258529.067005287</v>
       </c>
       <c r="D123">
-        <v>7032719.442422396</v>
+        <v>7032719.442422395</v>
       </c>
       <c r="E123">
-        <v>8978865.258177822</v>
+        <v>8978865.258177817</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2465,13 +2465,13 @@
         <v>3204942.179950395</v>
       </c>
       <c r="C124">
-        <v>3173968.312552683</v>
+        <v>3173968.312552682</v>
       </c>
       <c r="D124">
         <v>3094396.554665854</v>
       </c>
       <c r="E124">
-        <v>3401930.315210231</v>
+        <v>3401930.315210229</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,7 +2479,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>6718999.216242452</v>
+        <v>6718999.216242451</v>
       </c>
       <c r="C125">
         <v>6649864.964272979</v>
@@ -2488,7 +2488,7 @@
         <v>7338010.149150982</v>
       </c>
       <c r="E125">
-        <v>9228964.780486932</v>
+        <v>9228964.780486926</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2496,16 +2496,16 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>6282700.565837098</v>
+        <v>6282700.565837097</v>
       </c>
       <c r="C126">
         <v>5906130.066952975</v>
       </c>
       <c r="D126">
-        <v>5378168.929191402</v>
+        <v>5378168.929191403</v>
       </c>
       <c r="E126">
-        <v>5289114.318641634</v>
+        <v>5289114.318641631</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2513,16 +2513,16 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>8919474.782466648</v>
+        <v>8919474.78246665</v>
       </c>
       <c r="C127">
-        <v>9848629.207334761</v>
+        <v>9848629.207334762</v>
       </c>
       <c r="D127">
         <v>11307756.02039843</v>
       </c>
       <c r="E127">
-        <v>14805242.71628701</v>
+        <v>14805242.716287</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2536,7 +2536,7 @@
         <v>1865660.116592756</v>
       </c>
       <c r="D128">
-        <v>2154827.505771911</v>
+        <v>2154827.50577191</v>
       </c>
       <c r="E128">
         <v>2798087.17870384</v>
@@ -2550,10 +2550,10 @@
         <v>10776686.13284317</v>
       </c>
       <c r="C129">
-        <v>11240602.20247135</v>
+        <v>11240602.20247136</v>
       </c>
       <c r="D129">
-        <v>12243338.10097677</v>
+        <v>12243338.10097676</v>
       </c>
       <c r="E129">
         <v>15156305.55131247</v>
@@ -2567,7 +2567,7 @@
         <v>3185177.216218332</v>
       </c>
       <c r="C130">
-        <v>4252870.141715908</v>
+        <v>4252870.141715907</v>
       </c>
       <c r="D130">
         <v>5688470.517766124</v>
@@ -2584,7 +2584,7 @@
         <v>10231175.3005801</v>
       </c>
       <c r="C131">
-        <v>9972247.228851095</v>
+        <v>9972247.228851091</v>
       </c>
       <c r="D131">
         <v>9811306.948073681</v>
@@ -2601,7 +2601,7 @@
         <v>22151459.73097294</v>
       </c>
       <c r="C132">
-        <v>25370570.15575352</v>
+        <v>25370570.15575351</v>
       </c>
       <c r="D132">
         <v>28390164.78591533</v>
@@ -2635,13 +2635,13 @@
         <v>7052619.950478416</v>
       </c>
       <c r="C134">
-        <v>11602818.4364535</v>
+        <v>11602818.43645349</v>
       </c>
       <c r="D134">
         <v>23552506.63314366</v>
       </c>
       <c r="E134">
-        <v>44719672.62610621</v>
+        <v>44719672.62610622</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2649,10 +2649,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>11161496.86846705</v>
+        <v>11161496.86846706</v>
       </c>
       <c r="C135">
-        <v>10894825.8545552</v>
+        <v>10894825.85455519</v>
       </c>
       <c r="D135">
         <v>12038637.40801813</v>
@@ -2675,7 +2675,7 @@
         <v>22258200.22266607</v>
       </c>
       <c r="E136">
-        <v>32402277.88261792</v>
+        <v>32402277.88261791</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2686,13 +2686,13 @@
         <v>3584852.085296385</v>
       </c>
       <c r="C137">
-        <v>3895338.014738697</v>
+        <v>3895338.014738696</v>
       </c>
       <c r="D137">
         <v>4322462.989669527</v>
       </c>
       <c r="E137">
-        <v>5520388.083705275</v>
+        <v>5520388.083705273</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2703,13 +2703,13 @@
         <v>8985408.473535094</v>
       </c>
       <c r="C138">
-        <v>9292493.095400747</v>
+        <v>9292493.095400745</v>
       </c>
       <c r="D138">
         <v>9986380.010615803</v>
       </c>
       <c r="E138">
-        <v>12240860.53343344</v>
+        <v>12240860.53343343</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2717,16 +2717,16 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>45922268.92481463</v>
+        <v>45922268.92481461</v>
       </c>
       <c r="C139">
         <v>61050943.40480649</v>
       </c>
       <c r="D139">
-        <v>71816661.91757154</v>
+        <v>71816661.91757151</v>
       </c>
       <c r="E139">
-        <v>93906438.38691013</v>
+        <v>93906438.38691008</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2740,10 +2740,10 @@
         <v>18739319.2247032</v>
       </c>
       <c r="D140">
-        <v>21676989.28773657</v>
+        <v>21676989.28773658</v>
       </c>
       <c r="E140">
-        <v>28528590.50086834</v>
+        <v>28528590.50086836</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2751,16 +2751,16 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>16251561.29796271</v>
+        <v>16251561.2979627</v>
       </c>
       <c r="C141">
         <v>20741365.86081819</v>
       </c>
       <c r="D141">
-        <v>24554411.16292231</v>
+        <v>24554411.1629223</v>
       </c>
       <c r="E141">
-        <v>32587160.46652878</v>
+        <v>32587160.46652877</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2768,16 +2768,16 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2600249.807674034</v>
+        <v>2600249.807674033</v>
       </c>
       <c r="C142">
         <v>3284831.697414646</v>
       </c>
       <c r="D142">
-        <v>4641382.59786946</v>
+        <v>4641382.597869459</v>
       </c>
       <c r="E142">
-        <v>7228205.648767938</v>
+        <v>7228205.648767934</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2791,7 +2791,7 @@
         <v>17303997.58139781</v>
       </c>
       <c r="D143">
-        <v>23801049.26829883</v>
+        <v>23801049.26829882</v>
       </c>
       <c r="E143">
         <v>35850491.97714295</v>
@@ -2805,10 +2805,10 @@
         <v>4625187.181477756</v>
       </c>
       <c r="C144">
-        <v>5596980.349778267</v>
+        <v>5596980.349778268</v>
       </c>
       <c r="D144">
-        <v>7737789.679817316</v>
+        <v>7737789.679817312</v>
       </c>
       <c r="E144">
         <v>11950163.99238098</v>
@@ -2819,13 +2819,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>5688980.23321764</v>
+        <v>5688980.233217641</v>
       </c>
       <c r="C145">
-        <v>8442112.027582219</v>
+        <v>8442112.027582223</v>
       </c>
       <c r="D145">
-        <v>14740979.07357603</v>
+        <v>14740979.07357602</v>
       </c>
       <c r="E145">
         <v>26173773.81745884</v>
@@ -2836,10 +2836,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>8972863.132066846</v>
+        <v>8972863.132066848</v>
       </c>
       <c r="C146">
-        <v>12499922.78117146</v>
+        <v>12499922.78117147</v>
       </c>
       <c r="D146">
         <v>14789952.42597993</v>
@@ -2853,7 +2853,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>8614489.437337212</v>
+        <v>8614489.437337214</v>
       </c>
       <c r="C147">
         <v>10212116.36756258</v>
@@ -2862,7 +2862,7 @@
         <v>13833990.05957516</v>
       </c>
       <c r="E147">
-        <v>21329539.46692608</v>
+        <v>21329539.46692609</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2870,13 +2870,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7548779.403852196</v>
+        <v>7548779.403852198</v>
       </c>
       <c r="C148">
         <v>8375727.020764043</v>
       </c>
       <c r="D148">
-        <v>9332081.430018498</v>
+        <v>9332081.430018494</v>
       </c>
       <c r="E148">
         <v>11955768.17488225</v>
@@ -2890,13 +2890,13 @@
         <v>4928288.374302209</v>
       </c>
       <c r="C149">
-        <v>4923970.83277521</v>
+        <v>4923970.832775206</v>
       </c>
       <c r="D149">
         <v>5255495.17386026</v>
       </c>
       <c r="E149">
-        <v>6436419.79798208</v>
+        <v>6436419.797982085</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2907,13 +2907,13 @@
         <v>2640154.486233326</v>
       </c>
       <c r="C150">
-        <v>2864855.757251031</v>
+        <v>2864855.757251029</v>
       </c>
       <c r="D150">
         <v>3201074.333169431</v>
       </c>
       <c r="E150">
-        <v>4080230.407649355</v>
+        <v>4080230.407649357</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2924,13 +2924,13 @@
         <v>20769215.29170217</v>
       </c>
       <c r="C151">
-        <v>19964463.55834312</v>
+        <v>19964463.55834311</v>
       </c>
       <c r="D151">
         <v>18346455.87965764</v>
       </c>
       <c r="E151">
-        <v>17700154.44445072</v>
+        <v>17700154.44445073</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2941,13 +2941,13 @@
         <v>5280308.972466652</v>
       </c>
       <c r="C152">
-        <v>6043055.112951394</v>
+        <v>6043055.11295139</v>
       </c>
       <c r="D152">
         <v>6832143.726018338</v>
       </c>
       <c r="E152">
-        <v>8677673.120493697</v>
+        <v>8677673.120493704</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2955,7 +2955,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>31711196.72004841</v>
+        <v>31711196.72004839</v>
       </c>
       <c r="C153">
         <v>29892143.04147536</v>
@@ -2972,13 +2972,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>6358035.706012196</v>
+        <v>6358035.706012193</v>
       </c>
       <c r="C154">
         <v>7056765.863902671</v>
       </c>
       <c r="D154">
-        <v>7783959.412873827</v>
+        <v>7783959.412873825</v>
       </c>
       <c r="E154">
         <v>9918929.5146688</v>
@@ -2992,13 +2992,13 @@
         <v>16476996.92778458</v>
       </c>
       <c r="C155">
-        <v>16083331.63181135</v>
+        <v>16083331.63181134</v>
       </c>
       <c r="D155">
         <v>16522242.00523224</v>
       </c>
       <c r="E155">
-        <v>19625854.6277048</v>
+        <v>19625854.62770481</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3009,13 +3009,13 @@
         <v>5479559.443426035</v>
       </c>
       <c r="C156">
-        <v>5939647.652995078</v>
+        <v>5939647.652995077</v>
       </c>
       <c r="D156">
         <v>6416404.662226112</v>
       </c>
       <c r="E156">
-        <v>8024364.207386689</v>
+        <v>8024364.207386695</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3026,13 +3026,13 @@
         <v>5556196.638438988</v>
       </c>
       <c r="C157">
-        <v>5708232.809371893</v>
+        <v>5708232.809371892</v>
       </c>
       <c r="D157">
         <v>6095584.429114806</v>
       </c>
       <c r="E157">
-        <v>7637647.860042753</v>
+        <v>7637647.860042757</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3046,10 +3046,10 @@
         <v>17466270.29320522</v>
       </c>
       <c r="D158">
-        <v>18846037.29210994</v>
+        <v>18846037.29210995</v>
       </c>
       <c r="E158">
-        <v>22753327.43455523</v>
+        <v>22753327.43455522</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3063,10 +3063,10 @@
         <v>16754216.10859014</v>
       </c>
       <c r="D159">
-        <v>20681399.59371684</v>
+        <v>20681399.59371685</v>
       </c>
       <c r="E159">
-        <v>29292882.35042502</v>
+        <v>29292882.350425</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3077,13 +3077,13 @@
         <v>2513600.281824712</v>
       </c>
       <c r="C160">
-        <v>2813599.030838608</v>
+        <v>2813599.030838605</v>
       </c>
       <c r="D160">
-        <v>3290481.809556234</v>
+        <v>3290481.809556235</v>
       </c>
       <c r="E160">
-        <v>4429526.67107405</v>
+        <v>4429526.671074052</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3100,7 +3100,7 @@
         <v>14619168.05850871</v>
       </c>
       <c r="E161">
-        <v>19679775.2199121</v>
+        <v>19679775.21991212</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3111,7 +3111,7 @@
         <v>6855273.495885579</v>
       </c>
       <c r="C162">
-        <v>9712698.024264783</v>
+        <v>9712698.024264775</v>
       </c>
       <c r="D162">
         <v>13202550.47044168</v>
@@ -3128,13 +3128,13 @@
         <v>8745458.62972871</v>
       </c>
       <c r="C163">
-        <v>9625852.89424973</v>
+        <v>9625852.894249724</v>
       </c>
       <c r="D163">
         <v>10698121.97409151</v>
       </c>
       <c r="E163">
-        <v>13971868.63272346</v>
+        <v>13971868.63272347</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3145,13 +3145,13 @@
         <v>1104224.574460696</v>
       </c>
       <c r="C164">
-        <v>1566999.308366235</v>
+        <v>1566999.308366234</v>
       </c>
       <c r="D164">
-        <v>2130157.03023946</v>
+        <v>2130157.030239461</v>
       </c>
       <c r="E164">
-        <v>3154938.078356911</v>
+        <v>3154938.078356912</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,16 +3159,16 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>9252346.527034061</v>
+        <v>9252346.527034063</v>
       </c>
       <c r="C165">
         <v>9431491.162554782</v>
       </c>
       <c r="D165">
-        <v>9852772.676680811</v>
+        <v>9852772.676680805</v>
       </c>
       <c r="E165">
-        <v>11520758.90482746</v>
+        <v>11520758.90482745</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,16 +3176,16 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>3489920.181249689</v>
+        <v>3489920.18124969</v>
       </c>
       <c r="C166">
         <v>4305680.748122836</v>
       </c>
       <c r="D166">
-        <v>5833878.558561007</v>
+        <v>5833878.558561003</v>
       </c>
       <c r="E166">
-        <v>8846297.016206795</v>
+        <v>8846297.016206793</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3199,10 +3199,10 @@
         <v>16845203.78948925</v>
       </c>
       <c r="D167">
-        <v>19936552.77310608</v>
+        <v>19936552.77310609</v>
       </c>
       <c r="E167">
-        <v>27974433.69152521</v>
+        <v>27974433.69152522</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3210,16 +3210,16 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>896558.8937849305</v>
+        <v>896558.8937849308</v>
       </c>
       <c r="C168">
-        <v>749552.3934433155</v>
+        <v>749552.3934433156</v>
       </c>
       <c r="D168">
-        <v>664551.7591035359</v>
+        <v>664551.7591035363</v>
       </c>
       <c r="E168">
-        <v>599452.150532683</v>
+        <v>599452.1505326832</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3227,10 +3227,10 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7027842.54735547</v>
+        <v>7027842.547355471</v>
       </c>
       <c r="C169">
-        <v>8392868.602807812</v>
+        <v>8392868.602807814</v>
       </c>
       <c r="D169">
         <v>10225644.13571733</v>
@@ -3253,7 +3253,7 @@
         <v>25169158.70903544</v>
       </c>
       <c r="E170">
-        <v>35462458.56790903</v>
+        <v>35462458.56790905</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3261,10 +3261,10 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>6071673.493293501</v>
+        <v>6071673.493293502</v>
       </c>
       <c r="C171">
-        <v>6704647.906840724</v>
+        <v>6704647.906840725</v>
       </c>
       <c r="D171">
         <v>8779593.449858312</v>
@@ -3278,16 +3278,16 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>5895552.425753174</v>
+        <v>5895552.425753173</v>
       </c>
       <c r="C172">
-        <v>5989120.804718139</v>
+        <v>5989120.804718138</v>
       </c>
       <c r="D172">
-        <v>6140056.862486469</v>
+        <v>6140056.862486468</v>
       </c>
       <c r="E172">
-        <v>7055358.249112791</v>
+        <v>7055358.249112796</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3298,13 +3298,13 @@
         <v>14668134.4352739</v>
       </c>
       <c r="C173">
-        <v>16541381.27017391</v>
+        <v>16541381.2701739</v>
       </c>
       <c r="D173">
         <v>20957384.16699927</v>
       </c>
       <c r="E173">
-        <v>30511329.9720404</v>
+        <v>30511329.97204042</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3318,10 +3318,10 @@
         <v>34810363.35351633</v>
       </c>
       <c r="D174">
-        <v>44723582.0087044</v>
+        <v>44723582.00870442</v>
       </c>
       <c r="E174">
-        <v>64880523.856039</v>
+        <v>64880523.85603902</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3338,7 +3338,7 @@
         <v>121959627.8412536</v>
       </c>
       <c r="E175">
-        <v>135293195.0858801</v>
+        <v>135293195.08588</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3355,7 +3355,7 @@
         <v>17436642.58254619</v>
       </c>
       <c r="E176">
-        <v>22795571.16326645</v>
+        <v>22795571.16326644</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3372,7 +3372,7 @@
         <v>18502215.1848129</v>
       </c>
       <c r="E177">
-        <v>28538870.91089463</v>
+        <v>28538870.91089461</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3380,13 +3380,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>4217365.692965881</v>
+        <v>4217365.69296588</v>
       </c>
       <c r="C178">
         <v>5308323.286690043</v>
       </c>
       <c r="D178">
-        <v>6819411.41246386</v>
+        <v>6819411.412463857</v>
       </c>
       <c r="E178">
         <v>10014579.55699375</v>
@@ -3400,13 +3400,13 @@
         <v>16782379.34606065</v>
       </c>
       <c r="C179">
-        <v>17756724.70422097</v>
+        <v>17756724.70422098</v>
       </c>
       <c r="D179">
-        <v>21600379.76872535</v>
+        <v>21600379.76872533</v>
       </c>
       <c r="E179">
-        <v>29795038.52214653</v>
+        <v>29795038.52214651</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3417,13 +3417,13 @@
         <v>636729.8396879379</v>
       </c>
       <c r="C180">
-        <v>639059.5009231197</v>
+        <v>639059.50092312</v>
       </c>
       <c r="D180">
-        <v>1341043.533313325</v>
+        <v>1341043.533313324</v>
       </c>
       <c r="E180">
-        <v>1629416.169179888</v>
+        <v>1629416.169179887</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3434,13 +3434,13 @@
         <v>90961.40566970542</v>
       </c>
       <c r="C181">
-        <v>91294.21441758853</v>
+        <v>91294.21441758856</v>
       </c>
       <c r="D181">
-        <v>47894.41190404733</v>
+        <v>47894.4119040473</v>
       </c>
       <c r="E181">
-        <v>58193.43461356744</v>
+        <v>58193.4346135674</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3448,16 +3448,16 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>64178729.64129765</v>
+        <v>64178729.64129764</v>
       </c>
       <c r="C182">
         <v>56739001.62784702</v>
       </c>
       <c r="D182">
-        <v>54133959.48618996</v>
+        <v>54133959.48618995</v>
       </c>
       <c r="E182">
-        <v>59798370.64789654</v>
+        <v>59798370.64789659</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3482,13 +3482,13 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>848838.9139715413</v>
+        <v>848838.9139715414</v>
       </c>
       <c r="C184">
         <v>765364.7735315454</v>
       </c>
       <c r="D184">
-        <v>627177.9706086657</v>
+        <v>627177.9706086656</v>
       </c>
       <c r="E184">
         <v>493710.6103052084</v>
@@ -3519,13 +3519,13 @@
         <v>5021752.640186667</v>
       </c>
       <c r="C186">
-        <v>5802852.4954642</v>
+        <v>5802852.495464199</v>
       </c>
       <c r="D186">
-        <v>6819284.924649639</v>
+        <v>6819284.924649642</v>
       </c>
       <c r="E186">
-        <v>9626510.561900452</v>
+        <v>9626510.56190045</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3536,13 +3536,13 @@
         <v>2129223.119439147</v>
       </c>
       <c r="C187">
-        <v>2377557.61966936</v>
+        <v>2377557.619669359</v>
       </c>
       <c r="D187">
-        <v>2855575.562197037</v>
+        <v>2855575.562197038</v>
       </c>
       <c r="E187">
-        <v>4028485.398186602</v>
+        <v>4028485.398186601</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3550,16 +3550,16 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>5330655.52825128</v>
+        <v>5330655.528251279</v>
       </c>
       <c r="C188">
         <v>4727987.650672533</v>
       </c>
       <c r="D188">
-        <v>4407187.020873334</v>
+        <v>4407187.020873332</v>
       </c>
       <c r="E188">
-        <v>4679369.684821996</v>
+        <v>4679369.684821997</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3567,16 +3567,16 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>73593726.32168494</v>
+        <v>73593726.32168493</v>
       </c>
       <c r="C189">
         <v>72803322.03555916</v>
       </c>
       <c r="D189">
-        <v>77085707.52872996</v>
+        <v>77085707.52872992</v>
       </c>
       <c r="E189">
-        <v>96219539.14415228</v>
+        <v>96219539.14415231</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3590,10 +3590,10 @@
         <v>26907246.79244531</v>
       </c>
       <c r="D190">
-        <v>28927172.99155043</v>
+        <v>28927172.99155042</v>
       </c>
       <c r="E190">
-        <v>37337470.61014217</v>
+        <v>37337470.61014219</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3604,10 +3604,10 @@
         <v>1095611.618454061</v>
       </c>
       <c r="C191">
-        <v>1271075.522862664</v>
+        <v>1271075.522862663</v>
       </c>
       <c r="D191">
-        <v>1522927.731480228</v>
+        <v>1522927.731480229</v>
       </c>
       <c r="E191">
         <v>2085360.516933099</v>
@@ -3621,13 +3621,13 @@
         <v>5383318.830280107</v>
       </c>
       <c r="C192">
-        <v>5601364.561593915</v>
+        <v>5601364.561593914</v>
       </c>
       <c r="D192">
-        <v>6052115.370626555</v>
+        <v>6052115.370626557</v>
       </c>
       <c r="E192">
-        <v>7429154.890162305</v>
+        <v>7429154.890162303</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3635,10 +3635,10 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>13216027.41654761</v>
+        <v>13216027.4165476</v>
       </c>
       <c r="C193">
-        <v>14824661.42500696</v>
+        <v>14824661.42500697</v>
       </c>
       <c r="D193">
         <v>18008196.20434132</v>
@@ -3652,10 +3652,10 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>8071216.743677289</v>
+        <v>8071216.743677287</v>
       </c>
       <c r="C194">
-        <v>9217898.450164584</v>
+        <v>9217898.450164588</v>
       </c>
       <c r="D194">
         <v>11801981.69324064</v>
@@ -3669,7 +3669,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>21609420.62180049</v>
+        <v>21609420.6218005</v>
       </c>
       <c r="C195">
         <v>30050328.38821418</v>
@@ -3678,7 +3678,7 @@
         <v>38268698.50791182</v>
       </c>
       <c r="E195">
-        <v>54533854.13093999</v>
+        <v>54533854.13094</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3689,10 +3689,10 @@
         <v>5154125.064786782</v>
       </c>
       <c r="C196">
-        <v>5967108.102821991</v>
+        <v>5967108.10282199</v>
       </c>
       <c r="D196">
-        <v>7705791.218147053</v>
+        <v>7705791.218147051</v>
       </c>
       <c r="E196">
         <v>11492411.23172031</v>
@@ -3712,7 +3712,7 @@
         <v>11747407.89905281</v>
       </c>
       <c r="E197">
-        <v>14166276.45500738</v>
+        <v>14166276.45500739</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3726,10 +3726,10 @@
         <v>3686769.048036424</v>
       </c>
       <c r="D198">
-        <v>4104516.012922066</v>
+        <v>4104516.012922065</v>
       </c>
       <c r="E198">
-        <v>5182784.06890514</v>
+        <v>5182784.068905143</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3743,10 +3743,10 @@
         <v>8217497.275743837</v>
       </c>
       <c r="D199">
-        <v>8680815.475605289</v>
+        <v>8680815.475605287</v>
       </c>
       <c r="E199">
-        <v>10365568.13781028</v>
+        <v>10365568.13781029</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3760,7 +3760,7 @@
         <v>7906564.946391367</v>
       </c>
       <c r="D200">
-        <v>9530025.685175372</v>
+        <v>9530025.685175369</v>
       </c>
       <c r="E200">
         <v>13244892.62053536</v>
@@ -3774,7 +3774,7 @@
         <v>7182817.641920737</v>
       </c>
       <c r="C201">
-        <v>8727928.935273375</v>
+        <v>8727928.935273373</v>
       </c>
       <c r="D201">
         <v>10022517.83624841</v>
@@ -3788,10 +3788,10 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>51084197.41649037</v>
+        <v>51084197.41649035</v>
       </c>
       <c r="C202">
-        <v>71542158.08050619</v>
+        <v>71542158.08050616</v>
       </c>
       <c r="D202">
         <v>107901520.4560849</v>
@@ -3811,7 +3811,7 @@
         <v>20528633.100007</v>
       </c>
       <c r="D203">
-        <v>23968319.92392979</v>
+        <v>23968319.92392978</v>
       </c>
       <c r="E203">
         <v>32629207.76845213</v>
@@ -3822,7 +3822,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>6933136.684205067</v>
+        <v>6933136.684205064</v>
       </c>
       <c r="C204">
         <v>7255019.306384239</v>
@@ -3831,7 +3831,7 @@
         <v>7783072.345477163</v>
       </c>
       <c r="E204">
-        <v>9561209.457006186</v>
+        <v>9561209.457006184</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,7 +3839,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>845504.4736835448</v>
+        <v>845504.4736835443</v>
       </c>
       <c r="C205">
         <v>975821.310215424</v>
@@ -3856,7 +3856,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>23239479.98148155</v>
+        <v>23239479.98148154</v>
       </c>
       <c r="C206">
         <v>24716133.79847804</v>
@@ -3876,10 +3876,10 @@
         <v>2999257.171570832</v>
       </c>
       <c r="C207">
-        <v>3195780.098141238</v>
+        <v>3195780.098141237</v>
       </c>
       <c r="D207">
-        <v>3042531.406250115</v>
+        <v>3042531.406250116</v>
       </c>
       <c r="E207">
         <v>2900834.289371508</v>
@@ -3893,13 +3893,13 @@
         <v>2733836.182936246</v>
       </c>
       <c r="C208">
-        <v>3053111.343759933</v>
+        <v>3053111.343759932</v>
       </c>
       <c r="D208">
-        <v>3100484.385416784</v>
+        <v>3100484.385416785</v>
       </c>
       <c r="E208">
-        <v>3172787.504000087</v>
+        <v>3172787.504000086</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3907,10 +3907,10 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>19386301.95346389</v>
+        <v>19386301.95346388</v>
       </c>
       <c r="C209">
-        <v>22140177.90127519</v>
+        <v>22140177.90127518</v>
       </c>
       <c r="D209">
         <v>24330752.77609487</v>
@@ -3933,7 +3933,7 @@
         <v>3245366.833333457</v>
       </c>
       <c r="E210">
-        <v>3777127.980952485</v>
+        <v>3777127.980952484</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3941,7 +3941,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>38525770.59642425</v>
+        <v>38525770.59642426</v>
       </c>
       <c r="C211">
         <v>35371973.91510803</v>
@@ -3950,7 +3950,7 @@
         <v>32488452.64915444</v>
       </c>
       <c r="E211">
-        <v>30465485.68081609</v>
+        <v>30465485.68081611</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3978,7 +3978,7 @@
         <v>2468415.194301658</v>
       </c>
       <c r="C213">
-        <v>2824841.336749844</v>
+        <v>2824841.336749843</v>
       </c>
       <c r="D213">
         <v>3129460.875000119</v>
@@ -3992,16 +3992,16 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1796458.736970781</v>
+        <v>1796458.73697078</v>
       </c>
       <c r="C214">
-        <v>1975565.692654089</v>
+        <v>1975565.69265409</v>
       </c>
       <c r="D214">
         <v>1918110.105898559</v>
       </c>
       <c r="E214">
-        <v>1859770.153264518</v>
+        <v>1859770.153264519</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,10 +4009,10 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1497048.947475651</v>
+        <v>1497048.94747565</v>
       </c>
       <c r="C215">
-        <v>1761991.023177971</v>
+        <v>1761991.023177972</v>
       </c>
       <c r="D215">
         <v>1970661.067703999</v>
@@ -4026,16 +4026,16 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>5493250.807606599</v>
+        <v>5493250.807606598</v>
       </c>
       <c r="C216">
-        <v>6184387.775986537</v>
+        <v>6184387.775986535</v>
       </c>
       <c r="D216">
         <v>5829583.189147444</v>
       </c>
       <c r="E216">
-        <v>5463916.771295412</v>
+        <v>5463916.771295413</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4043,16 +4043,16 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>2198674.863873227</v>
+        <v>2198674.863873226</v>
       </c>
       <c r="C217">
         <v>3165437.717814661</v>
       </c>
       <c r="D217">
-        <v>4744754.136580755</v>
+        <v>4744754.136580756</v>
       </c>
       <c r="E217">
-        <v>6790505.893508138</v>
+        <v>6790505.893508141</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4060,7 +4060,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>4347379.844476607</v>
+        <v>4347379.844476606</v>
       </c>
       <c r="C218">
         <v>4506724.886380195</v>
@@ -4069,7 +4069,7 @@
         <v>4291603.460615178</v>
       </c>
       <c r="E218">
-        <v>4068914.24571321</v>
+        <v>4068914.245713212</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4077,16 +4077,16 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>4412378.086161501</v>
+        <v>4412378.0861615</v>
       </c>
       <c r="C219">
-        <v>4780582.22388236</v>
+        <v>4780582.223882361</v>
       </c>
       <c r="D219">
-        <v>4786657.427240216</v>
+        <v>4786657.427240218</v>
       </c>
       <c r="E219">
-        <v>4946799.221876492</v>
+        <v>4946799.221876491</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4094,10 +4094,10 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>4370187.87964555</v>
+        <v>4370187.879645551</v>
       </c>
       <c r="C220">
-        <v>4626588.452319113</v>
+        <v>4626588.452319114</v>
       </c>
       <c r="D220">
         <v>4860041.34673109</v>
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>3546300.181426448</v>
+        <v>3546300.18142645</v>
       </c>
       <c r="C221">
-        <v>3528152.785481688</v>
+        <v>3528152.785481689</v>
       </c>
       <c r="D221">
-        <v>3439005.838118817</v>
+        <v>3439005.838118819</v>
       </c>
       <c r="E221">
-        <v>3554750.957613354</v>
+        <v>3554750.957613352</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4128,16 +4128,16 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>3368910.2955152</v>
+        <v>3368910.295515199</v>
       </c>
       <c r="C222">
-        <v>4030686.973077284</v>
+        <v>4030686.973077285</v>
       </c>
       <c r="D222">
-        <v>4976855.735607377</v>
+        <v>4976855.735607379</v>
       </c>
       <c r="E222">
-        <v>6550244.486898527</v>
+        <v>6550244.486898526</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4145,16 +4145,16 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>4287799.31027016</v>
+        <v>4287799.310270162</v>
       </c>
       <c r="C223">
-        <v>3729761.516080641</v>
+        <v>3729761.516080643</v>
       </c>
       <c r="D223">
-        <v>3232665.487831688</v>
+        <v>3232665.48783169</v>
       </c>
       <c r="E223">
-        <v>2836237.466180868</v>
+        <v>2836237.466180866</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4165,13 +4165,13 @@
         <v>2446924.437031385</v>
       </c>
       <c r="C224">
-        <v>2722708.785673095</v>
+        <v>2722708.785673094</v>
       </c>
       <c r="D224">
         <v>2761315.685405948</v>
       </c>
       <c r="E224">
-        <v>2837503.844899083</v>
+        <v>2837503.844899085</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4179,16 +4179,16 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>2796485.070893011</v>
+        <v>2796485.070893012</v>
       </c>
       <c r="C225">
-        <v>2884453.862049715</v>
+        <v>2884453.862049714</v>
       </c>
       <c r="D225">
         <v>2680889.014957231</v>
       </c>
       <c r="E225">
-        <v>2455532.173470361</v>
+        <v>2455532.173470362</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4205,7 +4205,7 @@
         <v>2788124.57555552</v>
       </c>
       <c r="E226">
-        <v>2919354.917348096</v>
+        <v>2919354.917348098</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4213,16 +4213,16 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>2614201.718574375</v>
+        <v>2614201.718574374</v>
       </c>
       <c r="C227">
-        <v>2912613.856990737</v>
+        <v>2912613.856990738</v>
       </c>
       <c r="D227">
-        <v>3214531.43795705</v>
+        <v>3214531.437957051</v>
       </c>
       <c r="E227">
-        <v>3674668.852758854</v>
+        <v>3674668.852758855</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4230,16 +4230,16 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>21420715.02537309</v>
+        <v>21420715.0253731</v>
       </c>
       <c r="C228">
         <v>18850625.62020436</v>
       </c>
       <c r="D228">
-        <v>14169509.08228416</v>
+        <v>14169509.08228417</v>
       </c>
       <c r="E228">
-        <v>9775881.340474686</v>
+        <v>9775881.340474682</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4247,7 +4247,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>4227371.282271512</v>
+        <v>4227371.282271513</v>
       </c>
       <c r="C229">
         <v>4776802.363108695</v>
@@ -4264,16 +4264,16 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>3610778.366543293</v>
+        <v>3610778.366543294</v>
       </c>
       <c r="C230">
-        <v>3494551.330381862</v>
+        <v>3494551.330381863</v>
       </c>
       <c r="D230">
-        <v>3404615.779737629</v>
+        <v>3404615.77973763</v>
       </c>
       <c r="E230">
-        <v>3592567.457162432</v>
+        <v>3592567.457162431</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4281,16 +4281,16 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>9722313.26730337</v>
+        <v>9722313.267303372</v>
       </c>
       <c r="C231">
-        <v>13959233.12192663</v>
+        <v>13959233.12192664</v>
       </c>
       <c r="D231">
         <v>15899876.46516927</v>
       </c>
       <c r="E231">
-        <v>18422201.40125013</v>
+        <v>18422201.40125014</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4341,7 +4341,7 @@
         <v>14147739.2188361</v>
       </c>
       <c r="E234">
-        <v>14841921.36282977</v>
+        <v>14841921.36282978</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4352,13 +4352,13 @@
         <v>12274425.20619138</v>
       </c>
       <c r="C235">
-        <v>13566635.30829747</v>
+        <v>13566635.30829746</v>
       </c>
       <c r="D235">
         <v>14479845.77326887</v>
       </c>
       <c r="E235">
-        <v>16569365.89199523</v>
+        <v>16569365.89199524</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4366,7 +4366,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>17616662.08349747</v>
+        <v>17616662.08349748</v>
       </c>
       <c r="C236">
         <v>15960747.42152643</v>
@@ -4383,16 +4383,16 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>2614201.718574375</v>
+        <v>2614201.718574374</v>
       </c>
       <c r="C237">
-        <v>3106788.114123453</v>
+        <v>3106788.114123454</v>
       </c>
       <c r="D237">
-        <v>3269954.393783896</v>
+        <v>3269954.393783897</v>
       </c>
       <c r="E237">
-        <v>3448535.384896771</v>
+        <v>3448535.384896772</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4400,16 +4400,16 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>2767978.290255221</v>
+        <v>2767978.29025522</v>
       </c>
       <c r="C238">
-        <v>3051309.754942677</v>
+        <v>3051309.754942678</v>
       </c>
       <c r="D238">
         <v>3186819.960043628</v>
       </c>
       <c r="E238">
-        <v>3420268.70141401</v>
+        <v>3420268.701414011</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4417,7 +4417,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>3972561.435088512</v>
+        <v>3972561.435088511</v>
       </c>
       <c r="C239">
         <v>3467397.448798497</v>
@@ -4434,7 +4434,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>3279111.623794303</v>
+        <v>3279111.623794302</v>
       </c>
       <c r="C240">
         <v>3794645.59219677</v>
@@ -4451,16 +4451,16 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>867136.385359671</v>
+        <v>867136.3853596705</v>
       </c>
       <c r="C241">
-        <v>880570.9162469618</v>
+        <v>880570.9162469622</v>
       </c>
       <c r="D241">
         <v>715941.3494049275</v>
       </c>
       <c r="E241">
-        <v>565158.3333972254</v>
+        <v>565158.3333972252</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4468,16 +4468,16 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>2611366.497232203</v>
+        <v>2611366.497232204</v>
       </c>
       <c r="C242">
-        <v>3091333.869183955</v>
+        <v>3091333.869183956</v>
       </c>
       <c r="D242">
-        <v>3679736.246787135</v>
+        <v>3679736.246787136</v>
       </c>
       <c r="E242">
-        <v>4727062.443634779</v>
+        <v>4727062.443634777</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4485,7 +4485,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>4101735.003338601</v>
+        <v>4101735.0033386</v>
       </c>
       <c r="C243">
         <v>4557377.971649757</v>
@@ -4494,7 +4494,7 @@
         <v>4816826.669592753</v>
       </c>
       <c r="E243">
-        <v>5564472.51487747</v>
+        <v>5564472.514877471</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4502,16 +4502,16 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>3352865.626075915</v>
+        <v>3352865.626075916</v>
       </c>
       <c r="C244">
-        <v>3360145.509982559</v>
+        <v>3360145.509982561</v>
       </c>
       <c r="D244">
-        <v>3473395.896500005</v>
+        <v>3473395.896500007</v>
       </c>
       <c r="E244">
-        <v>3895099.453555058</v>
+        <v>3895099.453555056</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4519,7 +4519,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>3383931.377754346</v>
+        <v>3383931.377754345</v>
       </c>
       <c r="C245">
         <v>4062778.811935829</v>
@@ -4528,7 +4528,7 @@
         <v>4997910.37897594</v>
       </c>
       <c r="E245">
-        <v>6653173.659092627</v>
+        <v>6653173.659092628</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4545,7 +4545,7 @@
         <v>2695461.51817023</v>
       </c>
       <c r="E246">
-        <v>4559374.04035303</v>
+        <v>4559374.040353029</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4562,7 +4562,7 @@
         <v>2695461.51817023</v>
       </c>
       <c r="E247">
-        <v>4559374.04035303</v>
+        <v>4559374.040353029</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4570,7 +4570,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>39728865.44502876</v>
+        <v>39728865.44502877</v>
       </c>
       <c r="C248">
         <v>36656670.30427659</v>
@@ -4579,7 +4579,7 @@
         <v>32284854.46782581</v>
       </c>
       <c r="E248">
-        <v>28201985.74067513</v>
+        <v>28201985.74067515</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4613,7 +4613,7 @@
         <v>22820340.43886883</v>
       </c>
       <c r="E250">
-        <v>25802749.30840245</v>
+        <v>25802749.30840246</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4641,10 +4641,10 @@
         <v>5262811.441840415</v>
       </c>
       <c r="C252">
-        <v>6682753.321680386</v>
+        <v>6682753.321680384</v>
       </c>
       <c r="D252">
-        <v>8903534.297254493</v>
+        <v>8903534.297254492</v>
       </c>
       <c r="E252">
         <v>12857806.79596577</v>
@@ -4655,16 +4655,16 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>619263.8682366702</v>
+        <v>619263.8682366699</v>
       </c>
       <c r="C253">
-        <v>546545.2273549368</v>
+        <v>546545.2273549369</v>
       </c>
       <c r="D253">
-        <v>527546.5914260269</v>
+        <v>527546.5914260271</v>
       </c>
       <c r="E253">
-        <v>557710.7114606258</v>
+        <v>557710.711460626</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4672,16 +4672,16 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>11796690.9612603</v>
+        <v>11796690.96126029</v>
       </c>
       <c r="C254">
         <v>11192945.49721815</v>
       </c>
       <c r="D254">
-        <v>10182874.60721494</v>
+        <v>10182874.60721495</v>
       </c>
       <c r="E254">
-        <v>9749890.481226251</v>
+        <v>9749890.481226258</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4689,16 +4689,16 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>660548.1261191148</v>
+        <v>660548.1261191146</v>
       </c>
       <c r="C255">
-        <v>588587.1679207011</v>
+        <v>588587.1679207012</v>
       </c>
       <c r="D255">
-        <v>527546.5914260269</v>
+        <v>527546.5914260271</v>
       </c>
       <c r="E255">
-        <v>456308.7639223302</v>
+        <v>456308.7639223304</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4706,16 +4706,16 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>4167098.399429095</v>
+        <v>4167098.399429096</v>
       </c>
       <c r="C256">
-        <v>4013391.844243929</v>
+        <v>4013391.844243928</v>
       </c>
       <c r="D256">
-        <v>3955805.66315183</v>
+        <v>3955805.663151829</v>
       </c>
       <c r="E256">
-        <v>4172561.141160869</v>
+        <v>4172561.14116087</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4723,10 +4723,10 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>1664739.597791533</v>
+        <v>1664739.597791534</v>
       </c>
       <c r="C257">
-        <v>1493868.461037731</v>
+        <v>1493868.46103773</v>
       </c>
       <c r="D257">
         <v>1353407.912940606</v>
@@ -4740,7 +4740,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>1473763.933206569</v>
+        <v>1473763.93320657</v>
       </c>
       <c r="C258">
         <v>1500635.279635299</v>
@@ -4757,7 +4757,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>1510608.031536733</v>
+        <v>1510608.031536734</v>
       </c>
       <c r="C259">
         <v>1575667.043617064</v>
@@ -4774,13 +4774,13 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>5528638.86391318</v>
+        <v>5528638.863913183</v>
       </c>
       <c r="C260">
-        <v>6141694.26599329</v>
+        <v>6141694.265993291</v>
       </c>
       <c r="D260">
-        <v>6903691.718299939</v>
+        <v>6903691.718299938</v>
       </c>
       <c r="E260">
         <v>9182831.349518791</v>
@@ -4791,7 +4791,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>1383784.89365828</v>
+        <v>1383784.893658279</v>
       </c>
       <c r="C261">
         <v>1153908.051550337</v>
@@ -4800,7 +4800,7 @@
         <v>1073507.752311047</v>
       </c>
       <c r="E261">
-        <v>1155443.833845549</v>
+        <v>1155443.833845548</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4808,7 +4808,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>1077299.366279012</v>
+        <v>1077299.366279013</v>
       </c>
       <c r="C262">
         <v>1229601.576153243</v>
@@ -4817,7 +4817,7 @@
         <v>1582084.777149549</v>
       </c>
       <c r="E262">
-        <v>2447657.120205668</v>
+        <v>2447657.120205669</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4825,7 +4825,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>1566980.896405836</v>
+        <v>1566980.896405837</v>
       </c>
       <c r="C263">
         <v>1430352.853892548</v>
@@ -4834,7 +4834,7 @@
         <v>1439554.617045986</v>
       </c>
       <c r="E263">
-        <v>1696014.382504715</v>
+        <v>1696014.382504716</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4845,10 +4845,10 @@
         <v>734524.2835700825</v>
       </c>
       <c r="C264">
-        <v>708242.5031775088</v>
+        <v>708242.5031775086</v>
       </c>
       <c r="D264">
-        <v>778934.8264570553</v>
+        <v>778934.8264570548</v>
       </c>
       <c r="E264">
         <v>1018140.87579726</v>
@@ -4862,10 +4862,10 @@
         <v>722865.167957859</v>
       </c>
       <c r="C265">
-        <v>708242.5031775088</v>
+        <v>708242.5031775086</v>
       </c>
       <c r="D265">
-        <v>778934.8264570553</v>
+        <v>778934.8264570548</v>
       </c>
       <c r="E265">
         <v>1038104.42238152</v>
@@ -4876,16 +4876,16 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>509092.9725331971</v>
+        <v>509092.972533197</v>
       </c>
       <c r="C266">
-        <v>617673.6054799567</v>
+        <v>617673.6054799566</v>
       </c>
       <c r="D266">
-        <v>743627.488003753</v>
+        <v>743627.4880037532</v>
       </c>
       <c r="E266">
-        <v>1089179.042432353</v>
+        <v>1089179.042432354</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4896,13 +4896,13 @@
         <v>851115.4396923179</v>
       </c>
       <c r="C267">
-        <v>781508.9690234581</v>
+        <v>781508.9690234577</v>
       </c>
       <c r="D267">
-        <v>750085.3884401274</v>
+        <v>750085.3884401269</v>
       </c>
       <c r="E267">
-        <v>778578.3167861402</v>
+        <v>778578.3167861401</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4910,7 +4910,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>1113390.144322754</v>
+        <v>1113390.144322753</v>
       </c>
       <c r="C268">
         <v>1081788.798328441</v>
@@ -4936,7 +4936,7 @@
         <v>1082095.814329535</v>
       </c>
       <c r="E269">
-        <v>1177663.907573348</v>
+        <v>1177663.907573347</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4947,13 +4947,13 @@
         <v>633174.1116590528</v>
       </c>
       <c r="C270">
-        <v>644534.3576984109</v>
+        <v>644534.3576984105</v>
       </c>
       <c r="D270">
         <v>724012.7782838955</v>
       </c>
       <c r="E270">
-        <v>942570.7769667908</v>
+        <v>942570.7769667907</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4995,16 +4995,16 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>532810.6197837589</v>
+        <v>532810.6197837585</v>
       </c>
       <c r="C273">
-        <v>504287.2665286374</v>
+        <v>504287.2665286371</v>
       </c>
       <c r="D273">
         <v>527946.7702532337</v>
       </c>
       <c r="E273">
-        <v>647746.4441547067</v>
+        <v>647746.4441547066</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5012,16 +5012,16 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>645376.2436817361</v>
+        <v>645376.2436817357</v>
       </c>
       <c r="C274">
-        <v>549447.3202476198</v>
+        <v>549447.3202476196</v>
       </c>
       <c r="D274">
         <v>503579.996241546</v>
       </c>
       <c r="E274">
-        <v>493521.100308348</v>
+        <v>493521.1003083478</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5029,7 +5029,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>1590516.610067057</v>
+        <v>1590516.610067058</v>
       </c>
       <c r="C275">
         <v>1837629.362884989</v>
@@ -5038,7 +5038,7 @@
         <v>2227674.064170013</v>
       </c>
       <c r="E275">
-        <v>2805991.367053655</v>
+        <v>2805991.367053654</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5046,10 +5046,10 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>316615.3153912372</v>
+        <v>316615.3153912373</v>
       </c>
       <c r="C276">
-        <v>329896.2444833669</v>
+        <v>329896.244483367</v>
       </c>
       <c r="D276">
         <v>311687.3368519726</v>
@@ -5080,13 +5080,13 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>1954130.782672184</v>
+        <v>1954130.782672185</v>
       </c>
       <c r="C278">
         <v>2121291.352658825</v>
       </c>
       <c r="D278">
-        <v>2227722.580808203</v>
+        <v>2227722.580808204</v>
       </c>
       <c r="E278">
         <v>2496489.190693008</v>
@@ -5097,16 +5097,16 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>927182.1187492558</v>
+        <v>927182.118749256</v>
       </c>
       <c r="C279">
-        <v>899061.7091968831</v>
+        <v>899061.7091968829</v>
       </c>
       <c r="D279">
         <v>796134.5587015628</v>
       </c>
       <c r="E279">
-        <v>728876.2531422565</v>
+        <v>728876.2531422561</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5114,16 +5114,16 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>953673.036427806</v>
+        <v>953673.0364278062</v>
       </c>
       <c r="C280">
-        <v>899061.7091968831</v>
+        <v>899061.7091968829</v>
       </c>
       <c r="D280">
         <v>796134.5587015628</v>
       </c>
       <c r="E280">
-        <v>728876.2531422565</v>
+        <v>728876.2531422561</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5134,10 +5134,10 @@
         <v>1785887.991389089</v>
       </c>
       <c r="C281">
-        <v>1600551.543812497</v>
+        <v>1600551.543812496</v>
       </c>
       <c r="D281">
-        <v>1313659.705197531</v>
+        <v>1313659.70519753</v>
       </c>
       <c r="E281">
         <v>1095887.148921228</v>
@@ -5148,7 +5148,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>622604.7194315562</v>
+        <v>622604.7194315561</v>
       </c>
       <c r="C282">
         <v>511717.6301881518</v>
@@ -5165,7 +5165,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>594304.50491194</v>
+        <v>594304.5049119398</v>
       </c>
       <c r="C283">
         <v>500218.357599654</v>
@@ -5174,7 +5174,7 @@
         <v>399756.8121044075</v>
       </c>
       <c r="E283">
-        <v>307675.7847901697</v>
+        <v>307675.7847901698</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5202,7 +5202,7 @@
         <v>444608.740762163</v>
       </c>
       <c r="C285">
-        <v>363559.1265735064</v>
+        <v>363559.1265735065</v>
       </c>
       <c r="D285">
         <v>279882.506560955</v>
@@ -5219,13 +5219,13 @@
         <v>1086127.624820557</v>
       </c>
       <c r="C286">
-        <v>927157.3876092858</v>
+        <v>927157.3876092855</v>
       </c>
       <c r="D286">
         <v>796134.5587015628</v>
       </c>
       <c r="E286">
-        <v>637766.7214994745</v>
+        <v>637766.721499474</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5233,13 +5233,13 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>6863468.321174084</v>
+        <v>6863468.321174083</v>
       </c>
       <c r="C287">
-        <v>7840102.386443093</v>
+        <v>7840102.386443095</v>
       </c>
       <c r="D287">
-        <v>8716306.080855796</v>
+        <v>8716306.080855794</v>
       </c>
       <c r="E287">
         <v>10910390.73918373</v>
@@ -5250,16 +5250,16 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>2781356.434921233</v>
+        <v>2781356.434921234</v>
       </c>
       <c r="C288">
         <v>3299621.262403091</v>
       </c>
       <c r="D288">
-        <v>4190889.061217468</v>
+        <v>4190889.061217467</v>
       </c>
       <c r="E288">
-        <v>6032714.360424427</v>
+        <v>6032714.360424429</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5273,10 +5273,10 @@
         <v>84516225.44879992</v>
       </c>
       <c r="D289">
-        <v>78788801.18904932</v>
+        <v>78788801.18904935</v>
       </c>
       <c r="E289">
-        <v>83513494.01282869</v>
+        <v>83513494.01282874</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5284,13 +5284,13 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>5693199.529084494</v>
+        <v>5693199.529084492</v>
       </c>
       <c r="C290">
-        <v>6961750.666800091</v>
+        <v>6961750.666800093</v>
       </c>
       <c r="D290">
-        <v>8960362.651119759</v>
+        <v>8960362.651119757</v>
       </c>
       <c r="E290">
         <v>13135254.73305649</v>
@@ -5304,10 +5304,10 @@
         <v>4627119.366517358</v>
       </c>
       <c r="C291">
-        <v>4087283.556755852</v>
+        <v>4087283.556755853</v>
       </c>
       <c r="D291">
-        <v>3935044.875833385</v>
+        <v>3935044.875833386</v>
       </c>
       <c r="E291">
         <v>4125807.771818521</v>
@@ -5324,10 +5324,10 @@
         <v>764462.4917382859</v>
       </c>
       <c r="D292">
-        <v>822698.3107886834</v>
+        <v>822698.3107886836</v>
       </c>
       <c r="E292">
-        <v>971966.975081856</v>
+        <v>971966.9750818554</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5338,13 +5338,13 @@
         <v>3312265.690447708</v>
       </c>
       <c r="C293">
-        <v>3640138.247213015</v>
+        <v>3640138.247213014</v>
       </c>
       <c r="D293">
-        <v>4206583.252330493</v>
+        <v>4206583.252330496</v>
       </c>
       <c r="E293">
-        <v>5564739.165898488</v>
+        <v>5564739.165898485</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5355,13 +5355,13 @@
         <v>958478.0743132647</v>
       </c>
       <c r="C294">
-        <v>849402.7685980955</v>
+        <v>849402.7685980954</v>
       </c>
       <c r="D294">
-        <v>761757.6951747068</v>
+        <v>761757.695174707</v>
       </c>
       <c r="E294">
-        <v>710283.5587136641</v>
+        <v>710283.5587136636</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5369,16 +5369,16 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>7861554.695521613</v>
+        <v>7861554.695521615</v>
       </c>
       <c r="C295">
-        <v>8450287.186723515</v>
+        <v>8450287.186723512</v>
       </c>
       <c r="D295">
-        <v>9596590.922387175</v>
+        <v>9596590.92238717</v>
       </c>
       <c r="E295">
-        <v>12108682.36086039</v>
+        <v>12108682.36086038</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5386,16 +5386,16 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>3403494.384527378</v>
+        <v>3403494.384527379</v>
       </c>
       <c r="C296">
-        <v>3541804.832995313</v>
+        <v>3541804.832995312</v>
       </c>
       <c r="D296">
-        <v>4043000.972764203</v>
+        <v>4043000.972764202</v>
       </c>
       <c r="E296">
-        <v>5196818.750229678</v>
+        <v>5196818.750229676</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5406,13 +5406,13 @@
         <v>1948956.864160512</v>
       </c>
       <c r="C297">
-        <v>2468072.643244263</v>
+        <v>2468072.643244262</v>
       </c>
       <c r="D297">
-        <v>4040899.912132906</v>
+        <v>4040899.912132907</v>
       </c>
       <c r="E297">
-        <v>7159497.049815409</v>
+        <v>7159497.049815404</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5420,7 +5420,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>7700192.220472975</v>
+        <v>7700192.220472974</v>
       </c>
       <c r="C298">
         <v>9163589.860337367</v>
@@ -5437,13 +5437,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>8384577.693667984</v>
+        <v>8384577.693667981</v>
       </c>
       <c r="C299">
         <v>10672165.7917968</v>
       </c>
       <c r="D299">
-        <v>13758055.09122142</v>
+        <v>13758055.09122141</v>
       </c>
       <c r="E299">
         <v>19604757.37523875</v>
@@ -5454,13 +5454,13 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>9132584.496593969</v>
+        <v>9132584.496593971</v>
       </c>
       <c r="C300">
-        <v>8907710.139850998</v>
+        <v>8907710.139850995</v>
       </c>
       <c r="D300">
-        <v>9215989.582689101</v>
+        <v>9215989.582689095</v>
       </c>
       <c r="E300">
         <v>10413466.83033993</v>
@@ -5471,16 +5471,16 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>3198772.917788889</v>
+        <v>3198772.91778889</v>
       </c>
       <c r="C301">
-        <v>3436862.467573229</v>
+        <v>3436862.467573228</v>
       </c>
       <c r="D301">
-        <v>4072511.928769781</v>
+        <v>4072511.92876978</v>
       </c>
       <c r="E301">
-        <v>5421141.861750384</v>
+        <v>5421141.861750382</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5497,7 +5497,7 @@
         <v>10366787.06477463</v>
       </c>
       <c r="E302">
-        <v>11274113.76822262</v>
+        <v>11274113.76822261</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5514,7 +5514,7 @@
         <v>10366787.06477463</v>
       </c>
       <c r="E303">
-        <v>11274113.76822262</v>
+        <v>11274113.76822261</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5528,7 +5528,7 @@
         <v>1503098.860407496</v>
       </c>
       <c r="D304">
-        <v>1575699.263448547</v>
+        <v>1575699.263448548</v>
       </c>
       <c r="E304">
         <v>1801066.957973288</v>
@@ -5545,10 +5545,10 @@
         <v>1315211.502856559</v>
       </c>
       <c r="D305">
-        <v>1646252.961811915</v>
+        <v>1646252.961811916</v>
       </c>
       <c r="E305">
-        <v>2341387.045365274</v>
+        <v>2341387.045365275</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5556,16 +5556,16 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>502903.1163513704</v>
+        <v>502903.1163513702</v>
       </c>
       <c r="C306">
-        <v>548238.8660948956</v>
+        <v>548238.8660948959</v>
       </c>
       <c r="D306">
-        <v>671612.7082396846</v>
+        <v>671612.7082396848</v>
       </c>
       <c r="E306">
-        <v>900615.90491355</v>
+        <v>900615.9049135499</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5579,10 +5579,10 @@
         <v>1419593.368162635</v>
       </c>
       <c r="D307">
-        <v>1599217.162903003</v>
+        <v>1599217.162903004</v>
       </c>
       <c r="E307">
-        <v>2071227.001669281</v>
+        <v>2071227.001669282</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5590,13 +5590,13 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>365747.7209828148</v>
+        <v>365747.7209828147</v>
       </c>
       <c r="C308">
-        <v>502552.293920321</v>
+        <v>502552.2939203212</v>
       </c>
       <c r="D308">
-        <v>696487.2529893025</v>
+        <v>696487.2529893027</v>
       </c>
       <c r="E308">
         <v>1055894.50920899</v>
@@ -5607,16 +5607,16 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>480043.8837899444</v>
+        <v>480043.8837899443</v>
       </c>
       <c r="C309">
-        <v>548238.8660948956</v>
+        <v>548238.8660948959</v>
       </c>
       <c r="D309">
-        <v>671612.7082396846</v>
+        <v>671612.7082396848</v>
       </c>
       <c r="E309">
-        <v>931671.6257726379</v>
+        <v>931671.6257726378</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5630,7 +5630,7 @@
         <v>1440469.741223851</v>
       </c>
       <c r="D310">
-        <v>1528663.464539635</v>
+        <v>1528663.464539636</v>
       </c>
       <c r="E310">
         <v>1831084.740606176</v>
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>302616.922694231</v>
+        <v>302616.9226942311</v>
       </c>
       <c r="C311">
-        <v>265118.2954406087</v>
+        <v>265118.2954406086</v>
       </c>
       <c r="D311">
-        <v>243254.4018437784</v>
+        <v>243254.4018437785</v>
       </c>
       <c r="E311">
-        <v>251821.5052755782</v>
+        <v>251821.5052755781</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,7 +5658,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>353053.0764766028</v>
+        <v>353053.0764766029</v>
       </c>
       <c r="C312">
         <v>281688.1889056467</v>
@@ -5667,7 +5667,7 @@
         <v>234866.3190215792</v>
       </c>
       <c r="E312">
-        <v>203394.2927225824</v>
+        <v>203394.2927225823</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5675,7 +5675,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>344647.0508462075</v>
+        <v>344647.0508462077</v>
       </c>
       <c r="C313">
         <v>281688.1889056467</v>
@@ -5684,7 +5684,7 @@
         <v>234866.3190215792</v>
       </c>
       <c r="E313">
-        <v>203394.2927225824</v>
+        <v>203394.2927225823</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>285804.8714334404</v>
+        <v>285804.8714334405</v>
       </c>
       <c r="C314">
-        <v>265118.2954406087</v>
+        <v>265118.2954406086</v>
       </c>
       <c r="D314">
         <v>251642.4846659777</v>
       </c>
       <c r="E314">
-        <v>271192.3902967765</v>
+        <v>271192.3902967764</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5718,7 +5718,7 @@
         <v>20785904.07507484</v>
       </c>
       <c r="E315">
-        <v>24790781.64125621</v>
+        <v>24790781.64125623</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5726,16 +5726,16 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>35872236.89342899</v>
+        <v>35872236.893429</v>
       </c>
       <c r="C316">
-        <v>35477377.44056838</v>
+        <v>35477377.44056839</v>
       </c>
       <c r="D316">
-        <v>38769345.96189135</v>
+        <v>38769345.96189138</v>
       </c>
       <c r="E316">
-        <v>48124967.53433096</v>
+        <v>48124967.53433094</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5749,7 +5749,7 @@
         <v>10896157.13558244</v>
       </c>
       <c r="D317">
-        <v>12534940.66870261</v>
+        <v>12534940.6687026</v>
       </c>
       <c r="E317">
         <v>16568389.87700947</v>
@@ -5760,7 +5760,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>4977757.873482825</v>
+        <v>4977757.873482826</v>
       </c>
       <c r="C318">
         <v>5523634.115462725</v>
@@ -5777,16 +5777,16 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>3504435.267486513</v>
+        <v>3504435.267486514</v>
       </c>
       <c r="C319">
-        <v>3772856.616494446</v>
+        <v>3772856.616494445</v>
       </c>
       <c r="D319">
         <v>4220121.500235516</v>
       </c>
       <c r="E319">
-        <v>5324533.864710026</v>
+        <v>5324533.864710025</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5794,7 +5794,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>3552088.123030597</v>
+        <v>3552088.123030596</v>
       </c>
       <c r="C320">
         <v>3772769.600057087</v>
@@ -5803,7 +5803,7 @@
         <v>4124871.781017522</v>
       </c>
       <c r="E320">
-        <v>5097362.016209675</v>
+        <v>5097362.016209676</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5817,7 +5817,7 @@
         <v>18138647.73462795</v>
       </c>
       <c r="D321">
-        <v>19788716.51151989</v>
+        <v>19788716.51151988</v>
       </c>
       <c r="E321">
         <v>24407420.49070151</v>
@@ -5834,7 +5834,7 @@
         <v>9535393.678482218</v>
       </c>
       <c r="D322">
-        <v>9281156.95792228</v>
+        <v>9281156.957922282</v>
       </c>
       <c r="E322">
         <v>10005570.56336254</v>
@@ -5851,7 +5851,7 @@
         <v>3329485.476587777</v>
       </c>
       <c r="D323">
-        <v>4028019.115340915</v>
+        <v>4028019.115340916</v>
       </c>
       <c r="E323">
         <v>5614968.931823364</v>
@@ -5862,13 +5862,13 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>3193407.91616417</v>
+        <v>3193407.916164169</v>
       </c>
       <c r="C324">
-        <v>3440468.325807369</v>
+        <v>3440468.32580737</v>
       </c>
       <c r="D324">
-        <v>3948256.360581689</v>
+        <v>3948256.36058169</v>
       </c>
       <c r="E324">
         <v>5217449.007446488</v>
@@ -5885,7 +5885,7 @@
         <v>3181508.344294987</v>
       </c>
       <c r="D325">
-        <v>4067900.492720528</v>
+        <v>4067900.492720529</v>
       </c>
       <c r="E325">
         <v>6012488.856200239</v>
@@ -5896,16 +5896,16 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>5822864.593165277</v>
+        <v>5822864.593165278</v>
       </c>
       <c r="C326">
-        <v>7389299.783532503</v>
+        <v>7389299.783532506</v>
       </c>
       <c r="D326">
-        <v>9279313.191895654</v>
+        <v>9279313.191895653</v>
       </c>
       <c r="E326">
-        <v>13278947.97876339</v>
+        <v>13278947.97876338</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5919,10 +5919,10 @@
         <v>3270045.817035059</v>
       </c>
       <c r="D327">
-        <v>3771758.622622102</v>
+        <v>3771758.622622103</v>
       </c>
       <c r="E327">
-        <v>5130090.657635295</v>
+        <v>5130090.657635294</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5930,16 +5930,16 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>3060781.317988188</v>
+        <v>3060781.317988187</v>
       </c>
       <c r="C328">
         <v>3270045.817035059</v>
       </c>
       <c r="D328">
-        <v>3648094.405486952</v>
+        <v>3648094.405486953</v>
       </c>
       <c r="E328">
-        <v>4896904.718651872</v>
+        <v>4896904.718651871</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5947,16 +5947,16 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>27658.31910540136</v>
+        <v>27658.31910540137</v>
       </c>
       <c r="C329">
         <v>27771.46516178381</v>
       </c>
       <c r="D329">
-        <v>29563.62256773121</v>
+        <v>29563.62256773122</v>
       </c>
       <c r="E329">
-        <v>37181.86771988567</v>
+        <v>37181.86771988564</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5964,16 +5964,16 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>4110192.055584138</v>
+        <v>4110192.055584137</v>
       </c>
       <c r="C330">
-        <v>3649604.706512343</v>
+        <v>3649604.706512342</v>
       </c>
       <c r="D330">
-        <v>3369849.916932862</v>
+        <v>3369849.916932863</v>
       </c>
       <c r="E330">
-        <v>3575517.731079145</v>
+        <v>3575517.731079144</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5990,7 +5990,7 @@
         <v>3555346.242635589</v>
       </c>
       <c r="E331">
-        <v>4236211.224865508</v>
+        <v>4236211.224865507</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,13 +5998,13 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>7789468.154228527</v>
+        <v>7789468.154228528</v>
       </c>
       <c r="C332">
-        <v>8053081.949150339</v>
+        <v>8053081.949150335</v>
       </c>
       <c r="D332">
-        <v>8850078.100492518</v>
+        <v>8850078.10049252</v>
       </c>
       <c r="E332">
         <v>11484987.301208</v>
@@ -6015,16 +6015,16 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>6529717.858021549</v>
+        <v>6529717.858021548</v>
       </c>
       <c r="C333">
-        <v>7225463.433882996</v>
+        <v>7225463.433882998</v>
       </c>
       <c r="D333">
         <v>8190157.855733383</v>
       </c>
       <c r="E333">
-        <v>10726541.4003871</v>
+        <v>10726541.40038711</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6032,7 +6032,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>13167794.48976946</v>
+        <v>13167794.48976945</v>
       </c>
       <c r="C334">
         <v>13661024.73963817</v>
@@ -6041,7 +6041,7 @@
         <v>15041963.53171001</v>
       </c>
       <c r="E334">
-        <v>19129448.94888808</v>
+        <v>19129448.94888809</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6049,10 +6049,10 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>5458037.480170852</v>
+        <v>5458037.480170851</v>
       </c>
       <c r="C335">
-        <v>6290017.505434373</v>
+        <v>6290017.505434372</v>
       </c>
       <c r="D335">
         <v>8122518.572239746</v>
@@ -6066,10 +6066,10 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>5368697.86717895</v>
+        <v>5368697.867178949</v>
       </c>
       <c r="C336">
-        <v>4863967.769950966</v>
+        <v>4863967.769950965</v>
       </c>
       <c r="D336">
         <v>4680501.47089689</v>
@@ -6086,10 +6086,10 @@
         <v>4655089.527507364</v>
       </c>
       <c r="C337">
-        <v>5535310.76496269</v>
+        <v>5535310.764962689</v>
       </c>
       <c r="D337">
-        <v>6401824.581787664</v>
+        <v>6401824.581787668</v>
       </c>
       <c r="E337">
         <v>7371042.647973751</v>
@@ -6100,7 +6100,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>4048203.67410856</v>
+        <v>4048203.674108562</v>
       </c>
       <c r="C338">
         <v>5448653.841345814</v>
@@ -6120,10 +6120,10 @@
         <v>4713278.146601206</v>
       </c>
       <c r="C339">
-        <v>5485592.404798355</v>
+        <v>5485592.404798353</v>
       </c>
       <c r="D339">
-        <v>6382940.143493306</v>
+        <v>6382940.14349331</v>
       </c>
       <c r="E339">
         <v>7392532.568230234</v>
@@ -6134,7 +6134,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>2347592.95644043</v>
+        <v>2347592.956440429</v>
       </c>
       <c r="C340">
         <v>2364287.162188522</v>
@@ -6143,7 +6143,7 @@
         <v>2449141.408045561</v>
       </c>
       <c r="E340">
-        <v>2470796.284186683</v>
+        <v>2470796.284186682</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6157,10 +6157,10 @@
         <v>2090375.8446179</v>
       </c>
       <c r="D341">
-        <v>2685610.23364996</v>
+        <v>2685610.233649959</v>
       </c>
       <c r="E341">
-        <v>3431661.505814837</v>
+        <v>3431661.505814836</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6168,16 +6168,16 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>505203.3294366018</v>
+        <v>505203.3294366019</v>
       </c>
       <c r="C342">
         <v>516723.3010257501</v>
       </c>
       <c r="D342">
-        <v>547845.0727480428</v>
+        <v>547845.0727480431</v>
       </c>
       <c r="E342">
-        <v>509651.6087124675</v>
+        <v>509651.6087124677</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6185,16 +6185,16 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>491549.1853977747</v>
+        <v>491549.1853977748</v>
       </c>
       <c r="C343">
         <v>500575.6978686954</v>
       </c>
       <c r="D343">
-        <v>547845.0727480428</v>
+        <v>547845.0727480431</v>
       </c>
       <c r="E343">
-        <v>555983.5731408736</v>
+        <v>555983.5731408739</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6202,7 +6202,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>2546330.984498879</v>
+        <v>2546330.984498878</v>
       </c>
       <c r="C344">
         <v>2465201.858135593</v>
@@ -6211,7 +6211,7 @@
         <v>2381578.886444304</v>
       </c>
       <c r="E344">
-        <v>2157044.375083612</v>
+        <v>2157044.375083611</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6219,16 +6219,16 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>592967.6864721857</v>
+        <v>592967.6864721858</v>
       </c>
       <c r="C345">
-        <v>624883.1222095024</v>
+        <v>624883.1222095025</v>
       </c>
       <c r="D345">
-        <v>625358.2959075028</v>
+        <v>625358.2959075026</v>
       </c>
       <c r="E345">
-        <v>603799.0937956934</v>
+        <v>603799.0937956936</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6236,16 +6236,16 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>625910.3357206404</v>
+        <v>625910.3357206405</v>
       </c>
       <c r="C346">
-        <v>615556.5084451814</v>
+        <v>615556.5084451815</v>
       </c>
       <c r="D346">
-        <v>614576.2563228906</v>
+        <v>614576.2563228905</v>
       </c>
       <c r="E346">
-        <v>591219.9460082831</v>
+        <v>591219.9460082833</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6253,16 +6253,16 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>625910.3357206404</v>
+        <v>625910.3357206405</v>
       </c>
       <c r="C347">
-        <v>615556.5084451814</v>
+        <v>615556.5084451815</v>
       </c>
       <c r="D347">
-        <v>614576.2563228906</v>
+        <v>614576.2563228905</v>
       </c>
       <c r="E347">
-        <v>591219.9460082831</v>
+        <v>591219.9460082833</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6270,16 +6270,16 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>632132.6408938684</v>
+        <v>632132.6408938685</v>
       </c>
       <c r="C348">
-        <v>675140.308398016</v>
+        <v>675140.3083980159</v>
       </c>
       <c r="D348">
-        <v>698925.9253666342</v>
+        <v>698925.9253666343</v>
       </c>
       <c r="E348">
-        <v>682390.6620754857</v>
+        <v>682390.6620754856</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6287,16 +6287,16 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>742755.8530502954</v>
+        <v>742755.8530502955</v>
       </c>
       <c r="C349">
-        <v>728440.8590610173</v>
+        <v>728440.8590610172</v>
       </c>
       <c r="D349">
-        <v>661146.1456170864</v>
+        <v>661146.1456170866</v>
       </c>
       <c r="E349">
-        <v>561968.780532753</v>
+        <v>561968.7805327529</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6304,16 +6304,16 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>742755.8530502954</v>
+        <v>742755.8530502955</v>
       </c>
       <c r="C350">
-        <v>728440.8590610173</v>
+        <v>728440.8590610172</v>
       </c>
       <c r="D350">
-        <v>661146.1456170864</v>
+        <v>661146.1456170866</v>
       </c>
       <c r="E350">
-        <v>561968.780532753</v>
+        <v>561968.7805327529</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6321,16 +6321,16 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>600456.6286781941</v>
+        <v>600456.6286781942</v>
       </c>
       <c r="C351">
-        <v>615124.0782877145</v>
+        <v>615124.0782877146</v>
       </c>
       <c r="D351">
-        <v>642802.4155325399</v>
+        <v>642802.4155325397</v>
       </c>
       <c r="E351">
-        <v>674953.2079737524</v>
+        <v>674953.2079737525</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,16 +6338,16 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>718403.466454268</v>
+        <v>718403.4664542682</v>
       </c>
       <c r="C352">
-        <v>656526.6604801569</v>
+        <v>656526.660480157</v>
       </c>
       <c r="D352">
-        <v>609323.1230568868</v>
+        <v>609323.1230568866</v>
       </c>
       <c r="E352">
-        <v>527549.6338185651</v>
+        <v>527549.6338185652</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6358,13 +6358,13 @@
         <v>3992129.522768481</v>
       </c>
       <c r="C353">
-        <v>4474810.378808424</v>
+        <v>4474810.378808425</v>
       </c>
       <c r="D353">
-        <v>4137257.364319605</v>
+        <v>4137257.364319606</v>
       </c>
       <c r="E353">
-        <v>3585159.567936436</v>
+        <v>3585159.567936437</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6375,7 +6375,7 @@
         <v>5909188.736365901</v>
       </c>
       <c r="C354">
-        <v>5469269.706719684</v>
+        <v>5469269.706719683</v>
       </c>
       <c r="D354">
         <v>4187203.174779951</v>
@@ -6392,13 +6392,13 @@
         <v>5302978.022782011</v>
       </c>
       <c r="C355">
-        <v>4905080.607540003</v>
+        <v>4905080.607540005</v>
       </c>
       <c r="D355">
-        <v>3799116.137428099</v>
+        <v>3799116.1374281</v>
       </c>
       <c r="E355">
-        <v>2618572.4295222</v>
+        <v>2618572.429522202</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6406,13 +6406,13 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>977909.6723435887</v>
+        <v>977909.6723435888</v>
       </c>
       <c r="C356">
         <v>1022194.500331952</v>
       </c>
       <c r="D356">
-        <v>895469.4519236359</v>
+        <v>895469.4519236358</v>
       </c>
       <c r="E356">
         <v>711394.8615143811</v>
@@ -6423,7 +6423,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>1136100.942869757</v>
+        <v>1136100.942869758</v>
       </c>
       <c r="C357">
         <v>1086081.656602699</v>
@@ -6457,7 +6457,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>309503.5923955571</v>
+        <v>309503.592395557</v>
       </c>
       <c r="C359">
         <v>354061.4040912082</v>
@@ -6466,7 +6466,7 @@
         <v>396227.2616193508</v>
       </c>
       <c r="E359">
-        <v>363622.7121390984</v>
+        <v>363622.7121390983</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6483,7 +6483,7 @@
         <v>363882.1790381793</v>
       </c>
       <c r="E360">
-        <v>252954.9301837206</v>
+        <v>252954.9301837205</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6491,16 +6491,16 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>11417524.6678187</v>
+        <v>11417524.66781871</v>
       </c>
       <c r="C361">
-        <v>12358427.30195144</v>
+        <v>12358427.30195143</v>
       </c>
       <c r="D361">
         <v>14320867.06965815</v>
       </c>
       <c r="E361">
-        <v>17861935.61000744</v>
+        <v>17861935.61000743</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6508,16 +6508,16 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>9945662.738405675</v>
+        <v>9945662.73840568</v>
       </c>
       <c r="C362">
-        <v>8218140.104028878</v>
+        <v>8218140.104028879</v>
       </c>
       <c r="D362">
-        <v>7267014.40381636</v>
+        <v>7267014.403816362</v>
       </c>
       <c r="E362">
-        <v>7109632.843955252</v>
+        <v>7109632.843955256</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6528,10 +6528,10 @@
         <v>785747.9845210589</v>
       </c>
       <c r="C363">
-        <v>777928.287553031</v>
+        <v>777928.2875530308</v>
       </c>
       <c r="D363">
-        <v>810259.9179655118</v>
+        <v>810259.9179655119</v>
       </c>
       <c r="E363">
         <v>955276.1270369641</v>
@@ -6542,13 +6542,13 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>2614928.491577629</v>
+        <v>2614928.491577628</v>
       </c>
       <c r="C364">
-        <v>2744405.662987428</v>
+        <v>2744405.662987427</v>
       </c>
       <c r="D364">
-        <v>3113016.058380108</v>
+        <v>3113016.058380109</v>
       </c>
       <c r="E364">
         <v>3804276.09495732</v>
@@ -6559,16 +6559,16 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>2503179.410740978</v>
+        <v>2503179.410740977</v>
       </c>
       <c r="C365">
-        <v>2650579.828355379</v>
+        <v>2650579.828355378</v>
       </c>
       <c r="D365">
-        <v>3140085.763235587</v>
+        <v>3140085.763235588</v>
       </c>
       <c r="E365">
-        <v>4042043.350892152</v>
+        <v>4042043.350892153</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6576,16 +6576,16 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>676368.7865005137</v>
+        <v>676368.7865005139</v>
       </c>
       <c r="C366">
-        <v>658937.4351124516</v>
+        <v>658937.4351124513</v>
       </c>
       <c r="D366">
         <v>688562.0072570713</v>
       </c>
       <c r="E366">
-        <v>737438.4766822408</v>
+        <v>737438.4766822407</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6593,16 +6593,16 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>751520.8738894596</v>
+        <v>751520.8738894599</v>
       </c>
       <c r="C367">
-        <v>675009.0798712918</v>
+        <v>675009.0798712916</v>
       </c>
       <c r="D367">
         <v>669435.2848332637</v>
       </c>
       <c r="E367">
-        <v>663694.6290140167</v>
+        <v>663694.6290140166</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6610,16 +6610,16 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>817379.8152072091</v>
+        <v>817379.8152072089</v>
       </c>
       <c r="C368">
-        <v>789467.6270543378</v>
+        <v>789467.627054338</v>
       </c>
       <c r="D368">
-        <v>858041.3929606098</v>
+        <v>858041.3929606101</v>
       </c>
       <c r="E368">
-        <v>941612.9377739757</v>
+        <v>941612.9377739754</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6627,10 +6627,10 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>826672.9612784056</v>
+        <v>826672.9612784059</v>
       </c>
       <c r="C369">
-        <v>691080.7246301321</v>
+        <v>691080.724630132</v>
       </c>
       <c r="D369">
         <v>650308.5624094562</v>
@@ -6644,16 +6644,16 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>306292.1063043973</v>
+        <v>306292.1063043972</v>
       </c>
       <c r="C370">
-        <v>295283.8163673638</v>
+        <v>295283.8163673637</v>
       </c>
       <c r="D370">
         <v>287611.8766769952</v>
       </c>
       <c r="E370">
-        <v>315822.8893874424</v>
+        <v>315822.8893874422</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6661,16 +6661,16 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>382865.1328804966</v>
+        <v>382865.1328804964</v>
       </c>
       <c r="C371">
-        <v>314334.3851652582</v>
+        <v>314334.3851652581</v>
       </c>
       <c r="D371">
         <v>267776.5748372024</v>
       </c>
       <c r="E371">
-        <v>233942.8810277351</v>
+        <v>233942.881027735</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6678,16 +6678,16 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>354150.2479144594</v>
+        <v>354150.2479144592</v>
       </c>
       <c r="C372">
-        <v>304809.100766311</v>
+        <v>304809.1007663109</v>
       </c>
       <c r="D372">
         <v>277694.2257570988</v>
       </c>
       <c r="E372">
-        <v>257337.1691305086</v>
+        <v>257337.1691305085</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6695,7 +6695,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>4595363.147799041</v>
+        <v>4595363.14779904</v>
       </c>
       <c r="C373">
         <v>5503530.91842894</v>
@@ -6715,13 +6715,13 @@
         <v>3223723.612403377</v>
       </c>
       <c r="C374">
-        <v>3983606.982539008</v>
+        <v>3983606.982539007</v>
       </c>
       <c r="D374">
-        <v>4624050.536635822</v>
+        <v>4624050.536635823</v>
       </c>
       <c r="E374">
-        <v>5602488.61330784</v>
+        <v>5602488.613307839</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6729,13 +6729,13 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>6349507.14507717</v>
+        <v>6349507.145077169</v>
       </c>
       <c r="C375">
-        <v>6317828.860441386</v>
+        <v>6317828.860441385</v>
       </c>
       <c r="D375">
-        <v>5890393.142924817</v>
+        <v>5890393.142924818</v>
       </c>
       <c r="E375">
         <v>5239371.96310353</v>
@@ -6746,16 +6746,16 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>4100072.155947173</v>
+        <v>4100072.155947174</v>
       </c>
       <c r="C376">
         <v>3937809.766717393</v>
       </c>
       <c r="D376">
-        <v>3740046.348818856</v>
+        <v>3740046.348818854</v>
       </c>
       <c r="E376">
-        <v>3483801.23824902</v>
+        <v>3483801.238249021</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6763,16 +6763,16 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>4100072.155947173</v>
+        <v>4100072.155947174</v>
       </c>
       <c r="C377">
         <v>3937809.766717393</v>
       </c>
       <c r="D377">
-        <v>3740046.348818856</v>
+        <v>3740046.348818854</v>
       </c>
       <c r="E377">
-        <v>3483801.23824902</v>
+        <v>3483801.238249021</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6797,7 +6797,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>2883685.638913939</v>
+        <v>2883685.638913938</v>
       </c>
       <c r="C379">
         <v>3386133.710240426</v>
@@ -6814,7 +6814,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>3999951.047525786</v>
+        <v>3999951.047525785</v>
       </c>
       <c r="C380">
         <v>3553764.091935496</v>
@@ -6848,16 +6848,16 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>1982823.623992854</v>
+        <v>1982823.623992855</v>
       </c>
       <c r="C382">
-        <v>1918355.856247351</v>
+        <v>1918355.85624735</v>
       </c>
       <c r="D382">
         <v>1692843.807004035</v>
       </c>
       <c r="E382">
-        <v>1438091.891104223</v>
+        <v>1438091.891104224</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6865,13 +6865,13 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>4864448.354134194</v>
+        <v>4864448.354134192</v>
       </c>
       <c r="C383">
-        <v>5559844.433088945</v>
+        <v>5559844.433088944</v>
       </c>
       <c r="D383">
-        <v>6074254.850085928</v>
+        <v>6074254.850085929</v>
       </c>
       <c r="E383">
         <v>7103777.89272384</v>
@@ -6882,16 +6882,16 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>7971931.363237322</v>
+        <v>7971931.363237323</v>
       </c>
       <c r="C384">
-        <v>7237996.306425169</v>
+        <v>7237996.306425167</v>
       </c>
       <c r="D384">
         <v>6805246.921239894</v>
       </c>
       <c r="E384">
-        <v>6519892.21326071</v>
+        <v>6519892.213260711</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6908,7 +6908,7 @@
         <v>1525657.724168464</v>
       </c>
       <c r="E385">
-        <v>1759931.966183959</v>
+        <v>1759931.966183958</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6916,16 +6916,16 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>1371340.469440423</v>
+        <v>1371340.469440424</v>
       </c>
       <c r="C386">
-        <v>1392239.508655732</v>
+        <v>1392239.508655731</v>
       </c>
       <c r="D386">
         <v>1320387.41363795</v>
       </c>
       <c r="E386">
-        <v>1297647.206322821</v>
+        <v>1297647.206322822</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6936,7 +6936,7 @@
         <v>1572024.440578046</v>
       </c>
       <c r="C387">
-        <v>1444448.490230322</v>
+        <v>1444448.490230321</v>
       </c>
       <c r="D387">
         <v>1285177.082607605</v>
@@ -6970,7 +6970,7 @@
         <v>168668.6658848948</v>
       </c>
       <c r="C389">
-        <v>155085.50327701</v>
+        <v>155085.5032770101</v>
       </c>
       <c r="D389">
         <v>149605.3826690207</v>
@@ -7021,13 +7021,13 @@
         <v>190861.9113960652</v>
       </c>
       <c r="C392">
-        <v>164778.3472318231</v>
+        <v>164778.3472318232</v>
       </c>
       <c r="D392">
         <v>144262.3332879843</v>
       </c>
       <c r="E392">
-        <v>111757.9687531797</v>
+        <v>111757.9687531798</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,16 +7035,16 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>369610.0470662173</v>
+        <v>369610.0470662174</v>
       </c>
       <c r="C393">
-        <v>337746.9951312111</v>
+        <v>337746.995131211</v>
       </c>
       <c r="D393">
-        <v>293304.4434825777</v>
+        <v>293304.4434825776</v>
       </c>
       <c r="E393">
-        <v>251236.2869946377</v>
+        <v>251236.2869946378</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7052,16 +7052,16 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>351491.9075041478</v>
+        <v>351491.9075041479</v>
       </c>
       <c r="C394">
-        <v>329982.6963925626</v>
+        <v>329982.6963925625</v>
       </c>
       <c r="D394">
-        <v>297268.0170431531</v>
+        <v>297268.017043153</v>
       </c>
       <c r="E394">
-        <v>263592.1699615871</v>
+        <v>263592.1699615872</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7078,7 +7078,7 @@
         <v>268844.4152280029</v>
       </c>
       <c r="E395">
-        <v>261438.4882625644</v>
+        <v>261438.4882625643</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7103,10 +7103,10 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>147826.1470348942</v>
+        <v>147826.1470348943</v>
       </c>
       <c r="C397">
-        <v>139223.342937184</v>
+        <v>139223.3429371839</v>
       </c>
       <c r="D397">
         <v>126173.0283707923</v>
@@ -7120,10 +7120,10 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>147826.1470348942</v>
+        <v>147826.1470348943</v>
       </c>
       <c r="C398">
-        <v>139223.342937184</v>
+        <v>139223.3429371839</v>
       </c>
       <c r="D398">
         <v>126173.0283707923</v>
@@ -7143,10 +7143,10 @@
         <v>1246845.194640217</v>
       </c>
       <c r="D399">
-        <v>1411386.643271663</v>
+        <v>1411386.643271664</v>
       </c>
       <c r="E399">
-        <v>1796785.694721512</v>
+        <v>1796785.694721513</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7154,13 +7154,13 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>1199753.293135991</v>
+        <v>1199753.29313599</v>
       </c>
       <c r="C400">
         <v>1052675.160613188</v>
       </c>
       <c r="D400">
-        <v>1020235.937288646</v>
+        <v>1020235.937288645</v>
       </c>
       <c r="E400">
         <v>1060164.073504864</v>
@@ -7197,7 +7197,7 @@
         <v>93748.79942908057</v>
       </c>
       <c r="E402">
-        <v>97912.18638505244</v>
+        <v>97912.18638505245</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7208,10 +7208,10 @@
         <v>1141228.742251308</v>
       </c>
       <c r="C403">
-        <v>1039516.721105523</v>
+        <v>1039516.721105524</v>
       </c>
       <c r="D403">
-        <v>1040438.629116144</v>
+        <v>1040438.629116143</v>
       </c>
       <c r="E403">
         <v>1133050.353558323</v>
@@ -7239,7 +7239,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>255208.405717927</v>
+        <v>255208.4057179271</v>
       </c>
       <c r="C405">
         <v>226934.2982927628</v>
@@ -7276,10 +7276,10 @@
         <v>185309.9356277791</v>
       </c>
       <c r="C407">
-        <v>188578.0299716123</v>
+        <v>188578.0299716124</v>
       </c>
       <c r="D407">
-        <v>205381.7484104095</v>
+        <v>205381.7484104096</v>
       </c>
       <c r="E407">
         <v>266730.2553600093</v>
@@ -7310,10 +7310,10 @@
         <v>200017.0733760155</v>
       </c>
       <c r="C409">
-        <v>191619.6111001867</v>
+        <v>191619.6111001868</v>
       </c>
       <c r="D409">
-        <v>202069.1395650803</v>
+        <v>202069.1395650804</v>
       </c>
       <c r="E409">
         <v>254028.8146285803</v>
@@ -7330,10 +7330,10 @@
         <v>1645161.420878619</v>
       </c>
       <c r="D410">
-        <v>2243375.6660816</v>
+        <v>2243375.666081602</v>
       </c>
       <c r="E410">
-        <v>3070065.761577788</v>
+        <v>3070065.761577789</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7341,7 +7341,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>266247.4178159522</v>
+        <v>266247.4178159521</v>
       </c>
       <c r="C411">
         <v>373219.9862437558</v>
@@ -7358,7 +7358,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>456424.1448273466</v>
+        <v>456424.1448273464</v>
       </c>
       <c r="C412">
         <v>457722.6246385684</v>
@@ -7367,7 +7367,7 @@
         <v>569342.7251791622</v>
       </c>
       <c r="E412">
-        <v>722997.0832610059</v>
+        <v>722997.0832610057</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7375,13 +7375,13 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>924542.2346262358</v>
+        <v>924542.2346262357</v>
       </c>
       <c r="C413">
-        <v>819789.6029347046</v>
+        <v>819789.6029347044</v>
       </c>
       <c r="D413">
-        <v>746021.3509092008</v>
+        <v>746021.3509092007</v>
       </c>
       <c r="E413">
         <v>695134.2525936643</v>
@@ -7398,10 +7398,10 @@
         <v>1645161.420878619</v>
       </c>
       <c r="D414">
-        <v>2243375.6660816</v>
+        <v>2243375.666081602</v>
       </c>
       <c r="E414">
-        <v>3070065.761577788</v>
+        <v>3070065.761577789</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7412,13 +7412,13 @@
         <v>633149.4971557361</v>
       </c>
       <c r="C415">
-        <v>671822.4791586886</v>
+        <v>671822.4791586885</v>
       </c>
       <c r="D415">
-        <v>810849.930188481</v>
+        <v>810849.9301884809</v>
       </c>
       <c r="E415">
-        <v>1020711.437496867</v>
+        <v>1020711.437496866</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7429,13 +7429,13 @@
         <v>715376.7045785589</v>
       </c>
       <c r="C416">
-        <v>719133.9213529624</v>
+        <v>719133.9213529623</v>
       </c>
       <c r="D416">
-        <v>785510.869870091</v>
+        <v>785510.8698700909</v>
       </c>
       <c r="E416">
-        <v>841639.2554798729</v>
+        <v>841639.2554798723</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7446,13 +7446,13 @@
         <v>133496.3237549146</v>
       </c>
       <c r="C417">
-        <v>117435.1559275745</v>
+        <v>117435.1559275746</v>
       </c>
       <c r="D417">
         <v>111136.9086421663</v>
       </c>
       <c r="E417">
-        <v>131728.9823539467</v>
+        <v>131728.9823539468</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7469,7 +7469,7 @@
         <v>105580.063210058</v>
       </c>
       <c r="E418">
-        <v>97063.46068185549</v>
+        <v>97063.4606818555</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7477,16 +7477,16 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C419">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D419">
         <v>535875.4760570687</v>
       </c>
       <c r="E419">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7494,16 +7494,16 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C420">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D420">
         <v>535875.4760570687</v>
       </c>
       <c r="E420">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7511,16 +7511,16 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C421">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D421">
         <v>535875.4760570687</v>
       </c>
       <c r="E421">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7528,16 +7528,16 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C422">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D422">
         <v>535875.4760570687</v>
       </c>
       <c r="E422">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7545,16 +7545,16 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C423">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D423">
         <v>535875.4760570687</v>
       </c>
       <c r="E423">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7562,16 +7562,16 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C424">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D424">
         <v>535875.4760570687</v>
       </c>
       <c r="E424">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7579,16 +7579,16 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C425">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D425">
         <v>535875.4760570687</v>
       </c>
       <c r="E425">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7596,16 +7596,16 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C426">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D426">
         <v>535875.4760570687</v>
       </c>
       <c r="E426">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7613,16 +7613,16 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C427">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D427">
         <v>535875.4760570687</v>
       </c>
       <c r="E427">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7630,16 +7630,16 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C428">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D428">
         <v>535875.4760570687</v>
       </c>
       <c r="E428">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7647,16 +7647,16 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C429">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D429">
         <v>535875.4760570687</v>
       </c>
       <c r="E429">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7664,16 +7664,16 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C430">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D430">
         <v>535875.4760570687</v>
       </c>
       <c r="E430">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7681,16 +7681,16 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C431">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D431">
         <v>535875.4760570687</v>
       </c>
       <c r="E431">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7698,16 +7698,16 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C432">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D432">
         <v>535875.4760570687</v>
       </c>
       <c r="E432">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7715,16 +7715,16 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C433">
-        <v>470819.5496825522</v>
+        <v>470819.5496825521</v>
       </c>
       <c r="D433">
         <v>535875.4760570687</v>
       </c>
       <c r="E433">
-        <v>708092.093943534</v>
+        <v>708092.0939435335</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7735,13 +7735,13 @@
         <v>530672.219612195</v>
       </c>
       <c r="C434">
-        <v>562881.9472552042</v>
+        <v>562881.9472552043</v>
       </c>
       <c r="D434">
-        <v>644412.1746543193</v>
+        <v>644412.1746543192</v>
       </c>
       <c r="E434">
-        <v>809739.7231291906</v>
+        <v>809739.723129191</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7749,16 +7749,16 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>556745.0440464701</v>
+        <v>556745.04404647</v>
       </c>
       <c r="C435">
-        <v>493239.5282388642</v>
+        <v>493239.5282388641</v>
       </c>
       <c r="D435">
         <v>509081.7022542153</v>
       </c>
       <c r="E435">
-        <v>513366.7681090622</v>
+        <v>513366.7681090618</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7772,7 +7772,7 @@
         <v>149387.3253724987</v>
       </c>
       <c r="D436">
-        <v>125033.8999232359</v>
+        <v>125033.8999232358</v>
       </c>
       <c r="E436">
         <v>106674.8083506262</v>
@@ -7979,7 +7979,7 @@
         <v>354507.8080948506</v>
       </c>
       <c r="E448">
-        <v>437697.3445569527</v>
+        <v>437697.3445569526</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7996,7 +7996,7 @@
         <v>354507.8080948506</v>
       </c>
       <c r="E449">
-        <v>437697.3445569527</v>
+        <v>437697.3445569526</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8013,7 +8013,7 @@
         <v>354507.8080948506</v>
       </c>
       <c r="E450">
-        <v>437697.3445569527</v>
+        <v>437697.3445569526</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8030,7 +8030,7 @@
         <v>354507.8080948506</v>
       </c>
       <c r="E451">
-        <v>437697.3445569527</v>
+        <v>437697.3445569526</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8047,7 +8047,7 @@
         <v>354507.8080948506</v>
       </c>
       <c r="E452">
-        <v>437697.3445569527</v>
+        <v>437697.3445569526</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8064,7 +8064,7 @@
         <v>396214.609047186</v>
       </c>
       <c r="E453">
-        <v>617925.6629039332</v>
+        <v>617925.6629039331</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,16 +8072,16 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>548714.9753833315</v>
+        <v>548714.9753833316</v>
       </c>
       <c r="C454">
-        <v>550667.6455810452</v>
+        <v>550667.6455810453</v>
       </c>
       <c r="D454">
         <v>638766.1822214613</v>
       </c>
       <c r="E454">
-        <v>775956.2300890259</v>
+        <v>775956.2300890256</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8089,16 +8089,16 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>548714.9753833315</v>
+        <v>548714.9753833316</v>
       </c>
       <c r="C455">
-        <v>550667.6455810452</v>
+        <v>550667.6455810453</v>
       </c>
       <c r="D455">
         <v>638766.1822214613</v>
       </c>
       <c r="E455">
-        <v>775956.2300890259</v>
+        <v>775956.2300890256</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8106,16 +8106,16 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>548714.9753833315</v>
+        <v>548714.9753833316</v>
       </c>
       <c r="C456">
-        <v>550667.6455810452</v>
+        <v>550667.6455810453</v>
       </c>
       <c r="D456">
         <v>638766.1822214613</v>
       </c>
       <c r="E456">
-        <v>775956.2300890259</v>
+        <v>775956.2300890256</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8123,16 +8123,16 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>548714.9753833315</v>
+        <v>548714.9753833316</v>
       </c>
       <c r="C457">
-        <v>550667.6455810452</v>
+        <v>550667.6455810453</v>
       </c>
       <c r="D457">
         <v>638766.1822214613</v>
       </c>
       <c r="E457">
-        <v>775956.2300890259</v>
+        <v>775956.2300890256</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8140,16 +8140,16 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>548714.9753833315</v>
+        <v>548714.9753833316</v>
       </c>
       <c r="C458">
-        <v>550667.6455810452</v>
+        <v>550667.6455810453</v>
       </c>
       <c r="D458">
         <v>638766.1822214613</v>
       </c>
       <c r="E458">
-        <v>775956.2300890259</v>
+        <v>775956.2300890256</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8157,7 +8157,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>631022.2216908312</v>
+        <v>631022.2216908315</v>
       </c>
       <c r="C459">
         <v>594141.4070742857</v>
@@ -8166,7 +8166,7 @@
         <v>604238.2804797607</v>
       </c>
       <c r="E459">
-        <v>639022.7777203743</v>
+        <v>639022.7777203739</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8174,16 +8174,16 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>548714.9753833315</v>
+        <v>548714.9753833316</v>
       </c>
       <c r="C460">
-        <v>550667.6455810452</v>
+        <v>550667.6455810453</v>
       </c>
       <c r="D460">
         <v>638766.1822214613</v>
       </c>
       <c r="E460">
-        <v>775956.2300890259</v>
+        <v>775956.2300890256</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8191,16 +8191,16 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>548714.9753833315</v>
+        <v>548714.9753833316</v>
       </c>
       <c r="C461">
-        <v>550667.6455810452</v>
+        <v>550667.6455810453</v>
       </c>
       <c r="D461">
         <v>638766.1822214613</v>
       </c>
       <c r="E461">
-        <v>775956.2300890259</v>
+        <v>775956.2300890256</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8208,7 +8208,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>631022.2216908312</v>
+        <v>631022.2216908315</v>
       </c>
       <c r="C462">
         <v>594141.4070742857</v>
@@ -8217,7 +8217,7 @@
         <v>604238.2804797607</v>
       </c>
       <c r="E462">
-        <v>639022.7777203743</v>
+        <v>639022.7777203739</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8225,16 +8225,16 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C463">
-        <v>459609.5604043962</v>
+        <v>459609.5604043961</v>
       </c>
       <c r="D463">
         <v>535875.4760570687</v>
       </c>
       <c r="E463">
-        <v>725794.3962921223</v>
+        <v>725794.3962921218</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8242,16 +8242,16 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C464">
-        <v>459609.5604043962</v>
+        <v>459609.5604043961</v>
       </c>
       <c r="D464">
         <v>535875.4760570687</v>
       </c>
       <c r="E464">
-        <v>725794.3962921223</v>
+        <v>725794.3962921218</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8259,16 +8259,16 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>685791.7914988367</v>
+        <v>685791.7914988366</v>
       </c>
       <c r="C465">
-        <v>606180.5585825276</v>
+        <v>606180.5585825277</v>
       </c>
       <c r="D465">
-        <v>594067.4735094506</v>
+        <v>594067.4735094504</v>
       </c>
       <c r="E465">
-        <v>613834.9514043864</v>
+        <v>613834.9514043867</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8279,13 +8279,13 @@
         <v>530672.219612195</v>
       </c>
       <c r="C466">
-        <v>545562.5027242748</v>
+        <v>545562.5027242749</v>
       </c>
       <c r="D466">
-        <v>634343.2344253456</v>
+        <v>634343.2344253454</v>
       </c>
       <c r="E466">
-        <v>835860.3593591645</v>
+        <v>835860.3593591648</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8293,16 +8293,16 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>430689.5623755712</v>
+        <v>430689.5623755711</v>
       </c>
       <c r="C467">
-        <v>459609.5604043962</v>
+        <v>459609.5604043961</v>
       </c>
       <c r="D467">
         <v>535875.4760570687</v>
       </c>
       <c r="E467">
-        <v>725794.3962921223</v>
+        <v>725794.3962921218</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8319,7 +8319,7 @@
         <v>396214.609047186</v>
       </c>
       <c r="E468">
-        <v>617925.6629039332</v>
+        <v>617925.6629039331</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8336,7 +8336,7 @@
         <v>354507.8080948506</v>
       </c>
       <c r="E469">
-        <v>386203.5393149583</v>
+        <v>386203.5393149582</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8353,7 +8353,7 @@
         <v>354507.8080948506</v>
       </c>
       <c r="E470">
-        <v>386203.5393149583</v>
+        <v>386203.5393149582</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8361,16 +8361,16 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>556745.0440464701</v>
+        <v>556745.04404647</v>
       </c>
       <c r="C471">
-        <v>504449.5175170202</v>
+        <v>504449.5175170201</v>
       </c>
       <c r="D471">
         <v>509081.7022542153</v>
       </c>
       <c r="E471">
-        <v>513366.7681090622</v>
+        <v>513366.7681090618</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8378,16 +8378,16 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>658457.9704599979</v>
+        <v>658457.970459998</v>
       </c>
       <c r="C472">
-        <v>623123.9147364459</v>
+        <v>623123.914736446</v>
       </c>
       <c r="D472">
         <v>604238.2804797607</v>
       </c>
       <c r="E472">
-        <v>547733.8094746065</v>
+        <v>547733.8094746063</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8395,16 +8395,16 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>685791.7914988367</v>
+        <v>685791.7914988366</v>
       </c>
       <c r="C473">
-        <v>614840.2808479923</v>
+        <v>614840.2808479924</v>
       </c>
       <c r="D473">
-        <v>594067.4735094506</v>
+        <v>594067.4735094504</v>
       </c>
       <c r="E473">
-        <v>600774.6332893994</v>
+        <v>600774.6332893997</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8412,16 +8412,16 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>685791.7914988367</v>
+        <v>685791.7914988366</v>
       </c>
       <c r="C474">
-        <v>614840.2808479923</v>
+        <v>614840.2808479924</v>
       </c>
       <c r="D474">
-        <v>594067.4735094506</v>
+        <v>594067.4735094504</v>
       </c>
       <c r="E474">
-        <v>600774.6332893994</v>
+        <v>600774.6332893997</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8432,10 +8432,10 @@
         <v>174513.4053502284</v>
       </c>
       <c r="C475">
-        <v>154920.1892751839</v>
+        <v>154920.1892751838</v>
       </c>
       <c r="D475">
-        <v>125033.8999232359</v>
+        <v>125033.8999232358</v>
       </c>
       <c r="E475">
         <v>96515.30279342375</v>
@@ -8455,7 +8455,7 @@
         <v>259672.3696327998</v>
       </c>
       <c r="E476">
-        <v>251617.2548014246</v>
+        <v>251617.2548014245</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8472,7 +8472,7 @@
         <v>267541.2293186422</v>
       </c>
       <c r="E477">
-        <v>261681.9449934816</v>
+        <v>261681.9449934815</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8500,10 +8500,10 @@
         <v>4486197.954109503</v>
       </c>
       <c r="C479">
-        <v>4325765.561961743</v>
+        <v>4325765.561961741</v>
       </c>
       <c r="D479">
-        <v>4669795.076395446</v>
+        <v>4669795.076395447</v>
       </c>
       <c r="E479">
         <v>5275646.728430539</v>
@@ -8633,16 +8633,16 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>665990.0607011943</v>
+        <v>665990.0607011945</v>
       </c>
       <c r="C487">
-        <v>627211.1328356566</v>
+        <v>627211.1328356565</v>
       </c>
       <c r="D487">
-        <v>576950.7806645673</v>
+        <v>576950.7806645669</v>
       </c>
       <c r="E487">
-        <v>528862.2117816012</v>
+        <v>528862.211781601</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8653,7 +8653,7 @@
         <v>168060.3119369778</v>
       </c>
       <c r="C488">
-        <v>161037.0027758063</v>
+        <v>161037.0027758062</v>
       </c>
       <c r="D488">
         <v>168799.0652726993</v>
@@ -8670,7 +8670,7 @@
         <v>201672.3743243733</v>
       </c>
       <c r="C489">
-        <v>182041.8292248245</v>
+        <v>182041.8292248244</v>
       </c>
       <c r="D489">
         <v>154732.4764999743</v>
@@ -8687,7 +8687,7 @@
         <v>2145233.172032512</v>
       </c>
       <c r="C490">
-        <v>2298354.078882172</v>
+        <v>2298354.078882171</v>
       </c>
       <c r="D490">
         <v>2781432.660545658</v>
@@ -8721,7 +8721,7 @@
         <v>2145233.172032512</v>
       </c>
       <c r="C492">
-        <v>2298354.078882172</v>
+        <v>2298354.078882171</v>
       </c>
       <c r="D492">
         <v>2781432.660545658</v>
@@ -8738,7 +8738,7 @@
         <v>2145233.172032512</v>
       </c>
       <c r="C493">
-        <v>2298354.078882172</v>
+        <v>2298354.078882171</v>
       </c>
       <c r="D493">
         <v>2781432.660545658</v>
@@ -8755,7 +8755,7 @@
         <v>2145233.172032512</v>
       </c>
       <c r="C494">
-        <v>2298354.078882172</v>
+        <v>2298354.078882171</v>
       </c>
       <c r="D494">
         <v>2781432.660545658</v>
@@ -8769,7 +8769,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>310760.4158035875</v>
+        <v>310760.4158035876</v>
       </c>
       <c r="C495">
         <v>277401.8974963665</v>
@@ -8789,13 +8789,13 @@
         <v>2510483.051302867</v>
       </c>
       <c r="C496">
-        <v>2355212.166684058</v>
+        <v>2355212.166684057</v>
       </c>
       <c r="D496">
         <v>2520458.720738506</v>
       </c>
       <c r="E496">
-        <v>2857788.066969377</v>
+        <v>2857788.066969378</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8803,7 +8803,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>310760.4158035875</v>
+        <v>310760.4158035876</v>
       </c>
       <c r="C497">
         <v>277401.8974963665</v>
@@ -8820,16 +8820,16 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>791609.6230202685</v>
+        <v>791609.6230202683</v>
       </c>
       <c r="C498">
-        <v>744910.4627920805</v>
+        <v>744910.4627920802</v>
       </c>
       <c r="D498">
-        <v>702160.3454469686</v>
+        <v>702160.3454469685</v>
       </c>
       <c r="E498">
-        <v>741308.535142306</v>
+        <v>741308.5351423062</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8837,16 +8837,16 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>932581.1997225082</v>
+        <v>932581.1997225079</v>
       </c>
       <c r="C499">
-        <v>788728.7253092617</v>
+        <v>788728.7253092614</v>
       </c>
       <c r="D499">
-        <v>668184.8448608249</v>
+        <v>668184.8448608248</v>
       </c>
       <c r="E499">
-        <v>582456.7061832404</v>
+        <v>582456.7061832406</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8854,16 +8854,16 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>943425.167161142</v>
+        <v>943425.1671611416</v>
       </c>
       <c r="C500">
-        <v>788728.7253092617</v>
+        <v>788728.7253092614</v>
       </c>
       <c r="D500">
-        <v>668184.8448608249</v>
+        <v>668184.8448608248</v>
       </c>
       <c r="E500">
-        <v>569219.053769985</v>
+        <v>569219.0537699852</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8871,13 +8871,13 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>297977.391129036</v>
+        <v>297977.3911290361</v>
       </c>
       <c r="C501">
         <v>316926.3313309995</v>
       </c>
       <c r="D501">
-        <v>360814.5732946213</v>
+        <v>360814.5732946212</v>
       </c>
       <c r="E501">
         <v>454597.179124337</v>
